--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8412AAE5-9DE1-4F65-9FE3-6790DAB7B7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345084F0-F424-4F81-8F31-1286F77B0055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -149,53 +149,6 @@
     <t>Esparus Aurata</t>
   </si>
   <si>
-    <r>
-      <t>Gambas (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CRUSTÁCEOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">), sal, antioxidante E-223, E- (contiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SULFITOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Redes de cerco y redes izadas</t>
   </si>
   <si>
@@ -308,6 +261,64 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gambas (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRUSTÁCEOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), sal, antioxidantes [metabi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SULFITO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de sodio (E-223), ascorbato de sodio (E- 301) y citrato de sodio (E-331)], estabilizante difosfato (E-450. Contiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SULFITOS. </t>
     </r>
   </si>
 </sst>
@@ -965,7 +976,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,33 +992,33 @@
   <sheetData>
     <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>0</v>
@@ -1031,7 +1042,7 @@
     </row>
     <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>7</v>
@@ -1053,9 +1064,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1064,10 +1075,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
@@ -1076,12 +1087,12 @@
         <v>21</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>28</v>
@@ -1102,7 +1113,7 @@
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>33</v>
@@ -1123,7 +1134,7 @@
     </row>
     <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>30</v>
@@ -1132,7 +1143,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>26</v>
@@ -1146,7 +1157,7 @@
     </row>
     <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>34</v>
@@ -1160,18 +1171,18 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
@@ -1239,16 +1250,16 @@
     </row>
     <row r="10" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>44</v>
-      </c>
       <c r="D10" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
@@ -1325,14 +1336,14 @@
     </row>
     <row r="12" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="7"/>
       <c r="F13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -1493,6 +1504,22 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="24">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D33:D35"/>
@@ -1501,22 +1528,6 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="F30:F32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F18:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345084F0-F424-4F81-8F31-1286F77B0055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8817AC3-B467-4798-AF01-72905CB95B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -976,7 +976,7 @@
   <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="10" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>42</v>
@@ -1504,6 +1504,22 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="24">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
@@ -1512,22 +1528,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87D4092-84FC-4698-9158-7FDE5693EFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018BF706-3E17-4E89-9736-2FE90A4F52E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="322">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -50,15 +50,9 @@
     <t>Capturado en agua dulce</t>
   </si>
   <si>
-    <t>FAO 37.1.1.1</t>
-  </si>
-  <si>
     <t>PRIONACE GLAUCA/BSH</t>
   </si>
   <si>
-    <t>FAO 87</t>
-  </si>
-  <si>
     <t>Cazón tintorera troceado. Producto congelado</t>
   </si>
   <si>
@@ -68,60 +62,15 @@
     <t>Parapenaeus longirostris (DSP)</t>
   </si>
   <si>
-    <t>FAO27</t>
-  </si>
-  <si>
-    <t>FAO27.9.A</t>
-  </si>
-  <si>
-    <t>Palangre de deriva</t>
-  </si>
-  <si>
-    <t>Redes de cerco</t>
-  </si>
-  <si>
-    <t>Redes izadas</t>
-  </si>
-  <si>
-    <t>FAO27 VIIIc</t>
-  </si>
-  <si>
-    <t>FAO 21,27X,31</t>
-  </si>
-  <si>
     <t>FAO 37.2.1</t>
   </si>
   <si>
-    <t>ITALIA</t>
-  </si>
-  <si>
-    <t>ESPAÑA</t>
-  </si>
-  <si>
     <t>Merluccius Australis</t>
   </si>
   <si>
-    <t xml:space="preserve">CHILE </t>
-  </si>
-  <si>
-    <t>NORUEGA</t>
-  </si>
-  <si>
     <t>Salmo Salar</t>
   </si>
   <si>
-    <t>FAO 81</t>
-  </si>
-  <si>
-    <t>Redes de arrastre</t>
-  </si>
-  <si>
-    <t>FAO 27 IX a</t>
-  </si>
-  <si>
-    <t>Redes de enmalle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Merluza </t>
   </si>
   <si>
@@ -131,30 +80,15 @@
     <t>Pulpo descongelado</t>
   </si>
   <si>
-    <t>MARRUECOS</t>
-  </si>
-  <si>
-    <t>FAO 34</t>
-  </si>
-  <si>
     <t>Salmón del atlántico</t>
   </si>
   <si>
     <t>Dorada fresca eviscerada</t>
   </si>
   <si>
-    <t>TURQUÍA</t>
-  </si>
-  <si>
     <t>Esparus Aurata</t>
   </si>
   <si>
-    <t>Redes de cerco y redes izadas</t>
-  </si>
-  <si>
-    <t>Fao 37.3</t>
-  </si>
-  <si>
     <t>De cria (acuicultura)</t>
   </si>
   <si>
@@ -168,12 +102,6 @@
   </si>
   <si>
     <t>Illex Argentinus</t>
-  </si>
-  <si>
-    <t>FAO 41</t>
-  </si>
-  <si>
-    <t>Sedales y anzuelos</t>
   </si>
   <si>
     <r>
@@ -322,10 +250,859 @@
     </r>
   </si>
   <si>
-    <t>CHINA</t>
-  </si>
-  <si>
-    <t>REDES DE ARRASTRES- SEDALES Y ANZUELOS</t>
+    <t>Pijota eviscerada</t>
+  </si>
+  <si>
+    <t>Merluza volanta +4 extra</t>
+  </si>
+  <si>
+    <t>Merluccius merluccius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 01 – Aguas interiores África  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 02 – Aguas interiores América del Norte  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 03 – Aguas interiores América del Sur  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 04 – Aguas interiores Asia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 05 – Aguas interiores Europa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 06 – Aguas interiores Oceanía  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 07 – Aguas interiores Ex-URSS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 08 – Aguas interiores Antártida  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 18 – Océano Ártico  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 21 – Atlántico Noroeste  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 27 – Atlántico Noreste  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 31 – Atlántico Centro-Occidental  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 34 – Atlántico Centro-Oriental  </t>
+  </si>
+  <si>
+    <t>FAO 27.I</t>
+  </si>
+  <si>
+    <t>FAO 27.IIa</t>
+  </si>
+  <si>
+    <t>FAO 27.IIb</t>
+  </si>
+  <si>
+    <t>FAO 27.IIIa</t>
+  </si>
+  <si>
+    <t>FAO 27.IIIb</t>
+  </si>
+  <si>
+    <t>FAO 27.IIIc</t>
+  </si>
+  <si>
+    <t>FAO 27.IIId</t>
+  </si>
+  <si>
+    <t>FAO 27.IVa</t>
+  </si>
+  <si>
+    <t>FAO 27.IVb</t>
+  </si>
+  <si>
+    <t>FAO 27.IVc</t>
+  </si>
+  <si>
+    <t>FAO 27.Va</t>
+  </si>
+  <si>
+    <t>FAO 27.Va1</t>
+  </si>
+  <si>
+    <t>FAO 27.Va2</t>
+  </si>
+  <si>
+    <t>FAO 27.Vb</t>
+  </si>
+  <si>
+    <t>FAO 27.Vb1</t>
+  </si>
+  <si>
+    <t>FAO 27.Vb2</t>
+  </si>
+  <si>
+    <t>FAO 27.VIa</t>
+  </si>
+  <si>
+    <t>FAO 27.VIb</t>
+  </si>
+  <si>
+    <t>FAO 27.VIb1</t>
+  </si>
+  <si>
+    <t>FAO 27.VIb2</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIa</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIb</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIc</t>
+  </si>
+  <si>
+    <t>FAO 27.VIId</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIe</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIf</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIg</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIh</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIj</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIj1</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIj2</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIk</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIk1</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIk2</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIa</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIb</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIc</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIId</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIId1</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIId2</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIe</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIe1</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIe2</t>
+  </si>
+  <si>
+    <t>FAO 27.IXa</t>
+  </si>
+  <si>
+    <t>FAO 27.IXb</t>
+  </si>
+  <si>
+    <t>FAO 27.IXb1</t>
+  </si>
+  <si>
+    <t>FAO 27.IXb2</t>
+  </si>
+  <si>
+    <t>FAO 27.Xa</t>
+  </si>
+  <si>
+    <t>FAO 27.Xb</t>
+  </si>
+  <si>
+    <t>FAO 27.XIIa</t>
+  </si>
+  <si>
+    <t>FAO 27.XIIa1</t>
+  </si>
+  <si>
+    <t>FAO 27.XIIa2</t>
+  </si>
+  <si>
+    <t>FAO 27.XIIa3</t>
+  </si>
+  <si>
+    <t>FAO 27.XIIa4</t>
+  </si>
+  <si>
+    <t>FAO 27.XIIb</t>
+  </si>
+  <si>
+    <t>FAO 27.XIIc</t>
+  </si>
+  <si>
+    <t>FAO 27.XIVa</t>
+  </si>
+  <si>
+    <t>FAO 27.XIVb</t>
+  </si>
+  <si>
+    <t>FAO 27.XIVb1</t>
+  </si>
+  <si>
+    <t>FAO 27.XIVb2</t>
+  </si>
+  <si>
+    <t>FAO 37.1.1</t>
+  </si>
+  <si>
+    <t>FAO 37.1.2</t>
+  </si>
+  <si>
+    <t>FAO 37.1.3</t>
+  </si>
+  <si>
+    <t>FAO 37.2.2</t>
+  </si>
+  <si>
+    <t>FAO 37.3.1</t>
+  </si>
+  <si>
+    <t>FAO 37.3.2</t>
+  </si>
+  <si>
+    <t>FAO 37.4.1</t>
+  </si>
+  <si>
+    <t>FAO 37.4.2</t>
+  </si>
+  <si>
+    <t>FAO 37.4.3</t>
+  </si>
+  <si>
+    <t>FAO 87.3.1</t>
+  </si>
+  <si>
+    <t>FAO 87.3.2</t>
+  </si>
+  <si>
+    <t>FAO 87.3.3</t>
+  </si>
+  <si>
+    <t>Afganistán</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Arabia Saudita</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>Belice</t>
+  </si>
+  <si>
+    <t>Benín</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia y Herzegovina</t>
+  </si>
+  <si>
+    <t>Botsuana</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Brunéi</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoras</t>
+  </si>
+  <si>
+    <t>Corea del Norte</t>
+  </si>
+  <si>
+    <t>Corea del Sur</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croacia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Eslovaquia</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Etiopía</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Gabón</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bisáu</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungría</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t>Islandia</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
+    <t>Jordania</t>
+  </si>
+  <si>
+    <t>Kazajistán</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>Kirguistán</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libia</t>
+  </si>
+  <si>
+    <t>Lituania</t>
+  </si>
+  <si>
+    <t>Luxemburgo</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malasia</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Maldivas</t>
+  </si>
+  <si>
+    <t>Malí</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>Mónaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Níger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>Omán</t>
+  </si>
+  <si>
+    <t>Pakistán</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Papúa Nueva Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>República Centroafricana</t>
+  </si>
+  <si>
+    <t>República Checa</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>Rumanía</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leona</t>
+  </si>
+  <si>
+    <t>Singapur</t>
+  </si>
+  <si>
+    <t>Siria</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudáfrica</t>
+  </si>
+  <si>
+    <t>Sudán</t>
+  </si>
+  <si>
+    <t>Suecia</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Surinam</t>
+  </si>
+  <si>
+    <t>Tailandia</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad y Tobago</t>
+  </si>
+  <si>
+    <t>Túnez</t>
+  </si>
+  <si>
+    <t>Turkmenistán</t>
+  </si>
+  <si>
+    <t>Turquía</t>
+  </si>
+  <si>
+    <t>Ucrania</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistán</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabue</t>
+  </si>
+  <si>
+    <t>Arpón y artes de captura por clavado</t>
+  </si>
+  <si>
+    <t>Atarraya</t>
+  </si>
+  <si>
+    <t>Buques con red de cerco</t>
+  </si>
+  <si>
+    <t>Dragas</t>
+  </si>
+  <si>
+    <t>Red de cerco con jareta (purse seine)</t>
+  </si>
+  <si>
+    <t>Red de cerco sin jareta</t>
+  </si>
+  <si>
+    <t>Red de cerco de playa</t>
+  </si>
+  <si>
+    <t>Redes de tiro (beach seine, boat seine, Danish seine)</t>
+  </si>
+  <si>
+    <t>Red de cerco izada</t>
+  </si>
+  <si>
+    <t>Red de cerco izada desde tierra</t>
+  </si>
+  <si>
+    <t>Redes izadas desde embarcación</t>
+  </si>
+  <si>
+    <t>Redes izadas desde orilla</t>
+  </si>
+  <si>
+    <t>Redes de izado manual</t>
+  </si>
+  <si>
+    <t>Red de tiro por botes</t>
+  </si>
+  <si>
+    <t>Red de tiro danesa</t>
+  </si>
+  <si>
+    <t>Redes de enmalle de fondo</t>
+  </si>
+  <si>
+    <t>Redes de enmalle de superficie</t>
+  </si>
+  <si>
+    <t>Red de trasmallo</t>
+  </si>
+  <si>
+    <t>Redes combinadas (enmalle/trasmallo)</t>
+  </si>
+  <si>
+    <t>Nasas</t>
+  </si>
+  <si>
+    <t>Trampas</t>
+  </si>
+  <si>
+    <t>Palangre de fondo</t>
+  </si>
+  <si>
+    <t>Palangre de superficie</t>
+  </si>
+  <si>
+    <t>Sedales de mano</t>
+  </si>
+  <si>
+    <t>Curricán (línea de arrastre)</t>
+  </si>
+  <si>
+    <t>Redes de arrastre de fondo</t>
+  </si>
+  <si>
+    <t>Redes de arrastre pelágico</t>
+  </si>
+  <si>
+    <t>Red de arrastre gemela</t>
+  </si>
+  <si>
+    <t>Red de arrastre de vara (beam trawl)</t>
+  </si>
+  <si>
+    <t>Red de arrastre de cuatro puertas</t>
+  </si>
+  <si>
+    <t>Red de arrastre combinada (fondo/pelágico)</t>
+  </si>
+  <si>
+    <t>Red de arrastre de medio agua</t>
+  </si>
+  <si>
+    <t>Pesca extractiva a mano</t>
+  </si>
+  <si>
+    <t>Pesca submarina</t>
+  </si>
+  <si>
+    <t>Artes de cerco con trampas</t>
+  </si>
+  <si>
+    <t>Trasmallo de deriva</t>
+  </si>
+  <si>
+    <t>Arte de cerco con luces</t>
+  </si>
+  <si>
+    <t>Red de izado de poste</t>
   </si>
 </sst>
 </file>
@@ -365,7 +1142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -508,20 +1285,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,18 +1325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -565,9 +1335,6 @@
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -586,8 +1353,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
-  <dimension ref="A1:BL35"/>
+  <dimension ref="A1:BL160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,552 +1797,1545 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="F5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="F6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="F8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+    </row>
+    <row r="14" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+    </row>
+    <row r="16" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="G16" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="F17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="G17" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="F18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="6"/>
+      <c r="F19" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
+      <c r="F20" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
+      <c r="F21" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
+      <c r="F23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="F24" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="F26" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="F27" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="20"/>
+      <c r="F29" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="F32" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20"/>
+      <c r="F33" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="20"/>
+      <c r="F35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20"/>
+      <c r="F36" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="F37" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="20"/>
+      <c r="F38" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="20"/>
+      <c r="F39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F40" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F42" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-    </row>
-    <row r="10" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="8"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="BA11"/>
-      <c r="BB11"/>
-      <c r="BC11"/>
-      <c r="BD11"/>
-      <c r="BE11"/>
-      <c r="BF11"/>
-      <c r="BG11"/>
-      <c r="BH11"/>
-      <c r="BI11"/>
-      <c r="BJ11"/>
-      <c r="BK11"/>
-      <c r="BL11"/>
-    </row>
-    <row r="12" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="7"/>
-      <c r="F13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="C14" s="7"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="8"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="C16" s="7"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="7"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="27"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="14"/>
+      <c r="G78" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G88" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G89" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G90" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G91" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G92" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G93" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G94" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G95" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G96" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G97" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G98" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G99" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G100" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G101" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G102" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G103" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G104" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G105" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G106" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G107" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G108" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G109" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G110" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G111" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G112" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G113" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G114" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G115" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G116" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G117" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G118" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G119" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G120" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G121" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G122" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G123" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G124" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G125" s="30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G126" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G127" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G128" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G129" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G130" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G131" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G132" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G133" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G134" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G135" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G136" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G137" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G138" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G139" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G140" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G141" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G142" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G143" s="30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G144" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G145" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G146" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G147" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G148" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G149" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G151" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G152" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G153" s="30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G154" s="30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G155" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G156" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G157" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G158" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G159" s="30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G160" s="30" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <mergeCells count="24">
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F18:F20"/>
+  <mergeCells count="18">
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018BF706-3E17-4E89-9736-2FE90A4F52E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F4F7C-0B93-4FC4-B589-882584B88101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="396">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Octopus Vulgaris</t>
   </si>
   <si>
-    <t>Pulpo descongelado</t>
-  </si>
-  <si>
     <t>Salmón del atlántico</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Dicentrarchus Labrax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pota anillada </t>
   </si>
   <si>
     <t>Illex Argentinus</t>
@@ -259,45 +253,6 @@
     <t>Merluccius merluccius</t>
   </si>
   <si>
-    <t xml:space="preserve">FAO 01 – Aguas interiores África  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 02 – Aguas interiores América del Norte  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 03 – Aguas interiores América del Sur  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 04 – Aguas interiores Asia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 05 – Aguas interiores Europa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 06 – Aguas interiores Oceanía  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 07 – Aguas interiores Ex-URSS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 08 – Aguas interiores Antártida  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 18 – Océano Ártico  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 21 – Atlántico Noroeste  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 27 – Atlántico Noreste  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 31 – Atlántico Centro-Occidental  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO 34 – Atlántico Centro-Oriental  </t>
-  </si>
-  <si>
     <t>FAO 27.I</t>
   </si>
   <si>
@@ -352,12 +307,6 @@
     <t>FAO 27.VIb</t>
   </si>
   <si>
-    <t>FAO 27.VIb1</t>
-  </si>
-  <si>
-    <t>FAO 27.VIb2</t>
-  </si>
-  <si>
     <t>FAO 27.VIIa</t>
   </si>
   <si>
@@ -385,21 +334,9 @@
     <t>FAO 27.VIIj</t>
   </si>
   <si>
-    <t>FAO 27.VIIj1</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIj2</t>
-  </si>
-  <si>
     <t>FAO 27.VIIk</t>
   </si>
   <si>
-    <t>FAO 27.VIIk1</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIk2</t>
-  </si>
-  <si>
     <t>FAO 27.VIIIa</t>
   </si>
   <si>
@@ -412,33 +349,15 @@
     <t>FAO 27.VIIId</t>
   </si>
   <si>
-    <t>FAO 27.VIIId1</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIId2</t>
-  </si>
-  <si>
     <t>FAO 27.VIIIe</t>
   </si>
   <si>
-    <t>FAO 27.VIIIe1</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIIe2</t>
-  </si>
-  <si>
     <t>FAO 27.IXa</t>
   </si>
   <si>
     <t>FAO 27.IXb</t>
   </si>
   <si>
-    <t>FAO 27.IXb1</t>
-  </si>
-  <si>
-    <t>FAO 27.IXb2</t>
-  </si>
-  <si>
     <t>FAO 27.Xa</t>
   </si>
   <si>
@@ -448,36 +367,12 @@
     <t>FAO 27.XIIa</t>
   </si>
   <si>
-    <t>FAO 27.XIIa1</t>
-  </si>
-  <si>
-    <t>FAO 27.XIIa2</t>
-  </si>
-  <si>
-    <t>FAO 27.XIIa3</t>
-  </si>
-  <si>
-    <t>FAO 27.XIIa4</t>
-  </si>
-  <si>
-    <t>FAO 27.XIIb</t>
-  </si>
-  <si>
-    <t>FAO 27.XIIc</t>
-  </si>
-  <si>
     <t>FAO 27.XIVa</t>
   </si>
   <si>
     <t>FAO 27.XIVb</t>
   </si>
   <si>
-    <t>FAO 27.XIVb1</t>
-  </si>
-  <si>
-    <t>FAO 27.XIVb2</t>
-  </si>
-  <si>
     <t>FAO 37.1.1</t>
   </si>
   <si>
@@ -1003,18 +898,9 @@
     <t>Dragas</t>
   </si>
   <si>
-    <t>Red de cerco con jareta (purse seine)</t>
-  </si>
-  <si>
-    <t>Red de cerco sin jareta</t>
-  </si>
-  <si>
     <t>Red de cerco de playa</t>
   </si>
   <si>
-    <t>Redes de tiro (beach seine, boat seine, Danish seine)</t>
-  </si>
-  <si>
     <t>Red de cerco izada</t>
   </si>
   <si>
@@ -1103,6 +989,342 @@
   </si>
   <si>
     <t>Red de izado de poste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red de cerco con jareta </t>
+  </si>
+  <si>
+    <t>Red de cerco</t>
+  </si>
+  <si>
+    <t>Redes de tiro</t>
+  </si>
+  <si>
+    <t>Boquerón eviscerado para vinagre</t>
+  </si>
+  <si>
+    <t>Pulpo T2 descongelado</t>
+  </si>
+  <si>
+    <t>Pota en anilla descongelada</t>
+  </si>
+  <si>
+    <t>Boquerón eviscerado</t>
+  </si>
+  <si>
+    <t>FAO 03</t>
+  </si>
+  <si>
+    <t>FAO 04</t>
+  </si>
+  <si>
+    <t>FAO 05</t>
+  </si>
+  <si>
+    <t>FAO 06</t>
+  </si>
+  <si>
+    <t>FAO 07</t>
+  </si>
+  <si>
+    <t>FAO 08</t>
+  </si>
+  <si>
+    <t>FAO 18</t>
+  </si>
+  <si>
+    <t>FAO 21</t>
+  </si>
+  <si>
+    <t>FAO 21.1</t>
+  </si>
+  <si>
+    <t>FAO 21.1.1</t>
+  </si>
+  <si>
+    <t>FAO 21.1.2</t>
+  </si>
+  <si>
+    <t>FAO 21.2</t>
+  </si>
+  <si>
+    <t>FAO 21.2.1</t>
+  </si>
+  <si>
+    <t>FAO 21.2.2</t>
+  </si>
+  <si>
+    <t>FAO 21.3</t>
+  </si>
+  <si>
+    <t>FAO 21.3.1</t>
+  </si>
+  <si>
+    <t>FAO 21.3.2</t>
+  </si>
+  <si>
+    <t>FAO 21.4</t>
+  </si>
+  <si>
+    <t>FAO 21.4.1</t>
+  </si>
+  <si>
+    <t>FAO 21.4.2</t>
+  </si>
+  <si>
+    <t>FAO 21.5</t>
+  </si>
+  <si>
+    <t>FAO 21.6</t>
+  </si>
+  <si>
+    <t>FAO 21.7</t>
+  </si>
+  <si>
+    <t>FAO 27</t>
+  </si>
+  <si>
+    <t>FAO 31</t>
+  </si>
+  <si>
+    <t>FAO 31.1</t>
+  </si>
+  <si>
+    <t>FAO 31.2</t>
+  </si>
+  <si>
+    <t>FAO 31.3</t>
+  </si>
+  <si>
+    <t>FAO 34</t>
+  </si>
+  <si>
+    <t>FAO 34.1</t>
+  </si>
+  <si>
+    <t>FAO 34.2</t>
+  </si>
+  <si>
+    <t>FAO 34.3</t>
+  </si>
+  <si>
+    <t>FAO 34.4</t>
+  </si>
+  <si>
+    <t>FAO 37</t>
+  </si>
+  <si>
+    <t>FAO 41</t>
+  </si>
+  <si>
+    <t>FAO 41.1</t>
+  </si>
+  <si>
+    <t>FAO 41.2</t>
+  </si>
+  <si>
+    <t>FAO 41.3</t>
+  </si>
+  <si>
+    <t>FAO 47</t>
+  </si>
+  <si>
+    <t>FAO 47.1</t>
+  </si>
+  <si>
+    <t>FAO 47.2</t>
+  </si>
+  <si>
+    <t>FAO 47.3</t>
+  </si>
+  <si>
+    <t>FAO 48</t>
+  </si>
+  <si>
+    <t>FAO 48.1</t>
+  </si>
+  <si>
+    <t>FAO 48.2</t>
+  </si>
+  <si>
+    <t>FAO 48.3</t>
+  </si>
+  <si>
+    <t>FAO 48.4</t>
+  </si>
+  <si>
+    <t>FAO 48.5</t>
+  </si>
+  <si>
+    <t>FAO 51</t>
+  </si>
+  <si>
+    <t>FAO 51.1</t>
+  </si>
+  <si>
+    <t>FAO 51.1.1</t>
+  </si>
+  <si>
+    <t>FAO 51.1.2</t>
+  </si>
+  <si>
+    <t>FAO 51.1.3</t>
+  </si>
+  <si>
+    <t>FAO 51.1.4</t>
+  </si>
+  <si>
+    <t>FAO 51.1.5</t>
+  </si>
+  <si>
+    <t>FAO 51.2</t>
+  </si>
+  <si>
+    <t>FAO 51.3</t>
+  </si>
+  <si>
+    <t>FAO 51.4</t>
+  </si>
+  <si>
+    <t>FAO 51.5</t>
+  </si>
+  <si>
+    <t>FAO 57</t>
+  </si>
+  <si>
+    <t>FAO 57.1</t>
+  </si>
+  <si>
+    <t>FAO 57.2</t>
+  </si>
+  <si>
+    <t>FAO 57.3</t>
+  </si>
+  <si>
+    <t>FAO 57.4</t>
+  </si>
+  <si>
+    <t>FAO 58</t>
+  </si>
+  <si>
+    <t>FAO 58.4.1</t>
+  </si>
+  <si>
+    <t>FAO 58.4.2</t>
+  </si>
+  <si>
+    <t>FAO 58.4.3</t>
+  </si>
+  <si>
+    <t>FAO 58.4.4</t>
+  </si>
+  <si>
+    <t>FAO 58.5.1</t>
+  </si>
+  <si>
+    <t>FAO 58.5.2</t>
+  </si>
+  <si>
+    <t>FAO 58.6</t>
+  </si>
+  <si>
+    <t>FAO 58.7</t>
+  </si>
+  <si>
+    <t>FAO 58.8</t>
+  </si>
+  <si>
+    <t>FAO 61</t>
+  </si>
+  <si>
+    <t>FAO 61.1</t>
+  </si>
+  <si>
+    <t>FAO 61.2</t>
+  </si>
+  <si>
+    <t>FAO 61.3</t>
+  </si>
+  <si>
+    <t>FAO 61.4</t>
+  </si>
+  <si>
+    <t>FAO 67</t>
+  </si>
+  <si>
+    <t>FAO 67.1</t>
+  </si>
+  <si>
+    <t>FAO 67.2</t>
+  </si>
+  <si>
+    <t>FAO 67.3</t>
+  </si>
+  <si>
+    <t>FAO 71</t>
+  </si>
+  <si>
+    <t>FAO 71.1</t>
+  </si>
+  <si>
+    <t>FAO 71.2</t>
+  </si>
+  <si>
+    <t>FAO 71.3</t>
+  </si>
+  <si>
+    <t>FAO 71.4</t>
+  </si>
+  <si>
+    <t>FAO 71.5</t>
+  </si>
+  <si>
+    <t>FAO 77</t>
+  </si>
+  <si>
+    <t>FAO 77.1</t>
+  </si>
+  <si>
+    <t>FAO 77.2</t>
+  </si>
+  <si>
+    <t>FAO 77.3</t>
+  </si>
+  <si>
+    <t>FAO 81</t>
+  </si>
+  <si>
+    <t>FAO 81.1</t>
+  </si>
+  <si>
+    <t>FAO 81.2</t>
+  </si>
+  <si>
+    <t>FAO 81.3</t>
+  </si>
+  <si>
+    <t>FAO 87</t>
+  </si>
+  <si>
+    <t>FAO 87.1</t>
+  </si>
+  <si>
+    <t>FAO 87.2</t>
+  </si>
+  <si>
+    <t>FAO 87.4</t>
+  </si>
+  <si>
+    <t>FAO 88</t>
+  </si>
+  <si>
+    <t>FAO 88.1</t>
+  </si>
+  <si>
+    <t>FAO 88.2</t>
+  </si>
+  <si>
+    <t>FAO 88.3</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1285,22 +1507,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1313,14 +1524,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1347,33 +1550,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1384,6 +1565,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1786,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,290 +1986,298 @@
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="F5" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="F6" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="F10" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D11" s="7"/>
+      <c r="F11" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="F12" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="F5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="F6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="F8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="8"/>
-      <c r="F9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="8"/>
-      <c r="F11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>295</v>
+      <c r="F13" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2141,42 +2337,42 @@
       <c r="BL13"/>
     </row>
     <row r="14" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>296</v>
+      <c r="F14" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>138</v>
+      <c r="F15" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -2236,1083 +2432,1300 @@
       <c r="BL15"/>
     </row>
     <row r="16" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>139</v>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="F16" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
-      <c r="F17" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>140</v>
+      <c r="F17" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
-      <c r="F18" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>141</v>
+      <c r="F18" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
-      <c r="F19" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>142</v>
+      <c r="F19" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="F20" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>143</v>
+      <c r="F20" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="F23" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="F24" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="F26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="F27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="F29" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="F30" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="F32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24"/>
+      <c r="F33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24"/>
+      <c r="F35" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="F36" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24"/>
+      <c r="F38" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="F39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F40" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F42" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G47" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="31" t="s">
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="F23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="31" t="s">
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="F24" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="31" t="s">
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="31" t="s">
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="H25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="F26" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="31" t="s">
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="H26" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="F27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="31" t="s">
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="H27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="31" t="s">
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="H28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="F29" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="31" t="s">
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="F30" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="31" t="s">
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="H30" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="31" t="s">
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="F32" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="31" t="s">
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20"/>
-      <c r="F33" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="31" t="s">
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H33" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="31" t="s">
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="G69" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="H34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20"/>
-      <c r="F35" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="31" t="s">
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H35" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-      <c r="F36" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="31" t="s">
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G71" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="31" t="s">
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="G72" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="F38" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="31" t="s">
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="20"/>
-      <c r="F39" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="31" t="s">
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="G74" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F40" s="30" t="s">
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F41" s="30" t="s">
+      <c r="G76" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F42" s="30" t="s">
+      <c r="G77" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F43" s="30" t="s">
+      <c r="G78" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F44" s="30" t="s">
+      <c r="G80" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F45" s="30" t="s">
+      <c r="G81" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F46" s="30" t="s">
+      <c r="G82" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F47" s="30" t="s">
+      <c r="G83" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F48" s="30" t="s">
+      <c r="G84" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="30" t="s">
+      <c r="G85" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F114" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F115" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G115" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F119" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F121" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F122" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F123" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F124" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F125" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F126" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F127" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F128" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F129" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F130" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F131" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F132" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F133" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F134" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F135" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F136" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F137" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F138" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F139" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F140" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F141" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F142" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F143" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F144" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F145" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F146" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F147" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F148" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F149" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F150" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F151" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F152" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="30" t="s">
+      <c r="G152" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F153" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G50" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="30" t="s">
+      <c r="G153" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F154" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F56" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F58" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F59" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F60" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F61" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F62" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F63" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F64" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F65" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F66" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F67" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F68" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F69" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F70" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F71" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F72" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F73" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F74" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G74" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F75" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G75" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F76" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F77" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G77" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F78" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F79" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G79" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F80" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G80" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F81" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G81" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F82" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G82" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F83" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G83" s="30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F84" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="G84" s="30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G85" s="30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G86" s="30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G87" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G88" s="30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G89" s="30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G90" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G91" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G92" s="30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G93" s="30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G94" s="30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G95" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G96" s="30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G97" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G98" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G99" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G100" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G101" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G102" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G103" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G104" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G105" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G106" s="30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G107" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G108" s="30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G109" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G110" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G111" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G112" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G113" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G114" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G115" s="30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G116" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G117" s="30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G118" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G119" s="30" t="s">
+      <c r="G154" s="21" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G120" s="30" t="s">
+    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F155" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G155" s="21" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G121" s="30" t="s">
+    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F156" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G156" s="21" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G122" s="30" t="s">
+    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F157" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="G157" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G123" s="30" t="s">
+    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F158" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G158" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G124" s="30" t="s">
+    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F159" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="G159" s="21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G125" s="30" t="s">
+    <row r="160" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G160" s="21" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G126" s="30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G127" s="30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G128" s="30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G129" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G130" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G131" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G132" s="30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G133" s="30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G134" s="30" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G135" s="30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G136" s="30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G137" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G138" s="30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G139" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G140" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G141" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G142" s="30" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G143" s="30" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G144" s="30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G145" s="30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G146" s="30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G147" s="30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G148" s="30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G149" s="30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G150" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G151" s="30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G152" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G153" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G154" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G155" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G156" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G157" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G158" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G159" s="30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G160" s="30" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F4F7C-0B93-4FC4-B589-882584B88101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6BC06-4362-4F9E-958D-490E26A58276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="398">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1325,6 +1325,12 @@
   </si>
   <si>
     <t>FAO 88.3</t>
+  </si>
+  <si>
+    <t>Nasas y trampas</t>
+  </si>
+  <si>
+    <t>redes de arrastres- sedales y anzuelos</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1571,7 +1577,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1972,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
-  <dimension ref="A1:BL160"/>
+  <dimension ref="A1:BL161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,7 +2035,7 @@
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" t="s">
         <v>291</v>
       </c>
       <c r="G2" s="19" t="s">
@@ -2054,7 +2059,7 @@
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" t="s">
         <v>292</v>
       </c>
       <c r="G3" s="20" t="s">
@@ -2080,7 +2085,7 @@
       <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" t="s">
         <v>293</v>
       </c>
       <c r="G4" s="20" t="s">
@@ -2101,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s">
         <v>294</v>
       </c>
       <c r="G5" s="20" t="s">
@@ -2122,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="F6" s="26" t="s">
+      <c r="F6" t="s">
         <v>295</v>
       </c>
       <c r="G6" s="20" t="s">
@@ -2145,7 +2150,7 @@
       <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" t="s">
         <v>296</v>
       </c>
       <c r="G7" s="23" t="s">
@@ -2166,7 +2171,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="F8" s="26" t="s">
+      <c r="F8" t="s">
         <v>297</v>
       </c>
       <c r="G8" s="22" t="s">
@@ -2185,7 +2190,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="7"/>
-      <c r="F9" s="26" t="s">
+      <c r="F9" t="s">
         <v>298</v>
       </c>
       <c r="G9" s="22" t="s">
@@ -2206,7 +2211,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="F10" s="26" t="s">
+      <c r="F10" t="s">
         <v>299</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2227,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="F11" s="26" t="s">
+      <c r="F11" t="s">
         <v>300</v>
       </c>
       <c r="G11" s="22" t="s">
@@ -2248,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="F12" s="26" t="s">
+      <c r="F12" t="s">
         <v>301</v>
       </c>
       <c r="G12" s="22" t="s">
@@ -2270,7 +2275,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="26" t="s">
+      <c r="F13" t="s">
         <v>302</v>
       </c>
       <c r="G13" s="22" t="s">
@@ -2349,7 +2354,7 @@
       <c r="D14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" t="s">
         <v>303</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -2365,7 +2370,7 @@
       <c r="C15" s="13"/>
       <c r="D15"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="26" t="s">
+      <c r="F15" t="s">
         <v>304</v>
       </c>
       <c r="G15" s="22" t="s">
@@ -2435,7 +2440,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
-      <c r="F16" s="26" t="s">
+      <c r="F16" t="s">
         <v>305</v>
       </c>
       <c r="G16" s="22" t="s">
@@ -2447,7 +2452,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
-      <c r="F17" s="26" t="s">
+      <c r="F17" t="s">
         <v>306</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2459,7 +2464,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
-      <c r="F18" s="26" t="s">
+      <c r="F18" t="s">
         <v>307</v>
       </c>
       <c r="G18" s="22" t="s">
@@ -2471,7 +2476,7 @@
     </row>
     <row r="19" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
-      <c r="F19" s="26" t="s">
+      <c r="F19" t="s">
         <v>308</v>
       </c>
       <c r="G19" s="22" t="s">
@@ -2483,7 +2488,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" t="s">
         <v>309</v>
       </c>
       <c r="G20" s="22" t="s">
@@ -2495,7 +2500,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
-      <c r="F21" s="26" t="s">
+      <c r="F21" t="s">
         <v>310</v>
       </c>
       <c r="G21" s="22" t="s">
@@ -2505,1250 +2510,1260 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>110</v>
-      </c>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="G22" s="22"/>
       <c r="H22" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
       <c r="D23" s="24"/>
-      <c r="F23" s="26" t="s">
-        <v>312</v>
+      <c r="E23" s="6"/>
+      <c r="F23" t="s">
+        <v>311</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="24"/>
-      <c r="F24" s="26" t="s">
-        <v>313</v>
+      <c r="F24" t="s">
+        <v>312</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="26" t="s">
-        <v>314</v>
+      <c r="F25" t="s">
+        <v>313</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
       <c r="D26" s="24"/>
-      <c r="F26" s="26" t="s">
-        <v>38</v>
+      <c r="E26" s="6"/>
+      <c r="F26" t="s">
+        <v>314</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
       <c r="D27" s="24"/>
-      <c r="F27" s="26" t="s">
-        <v>39</v>
+      <c r="F27" t="s">
+        <v>38</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="26" t="s">
-        <v>40</v>
+      <c r="F28" t="s">
+        <v>39</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
       <c r="D29" s="24"/>
-      <c r="F29" s="26" t="s">
-        <v>41</v>
+      <c r="E29" s="6"/>
+      <c r="F29" t="s">
+        <v>40</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
       <c r="D30" s="24"/>
-      <c r="F30" s="26" t="s">
-        <v>42</v>
+      <c r="F30" t="s">
+        <v>41</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="26" t="s">
-        <v>43</v>
+      <c r="F31" t="s">
+        <v>42</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="24"/>
-      <c r="F32" s="26" t="s">
-        <v>44</v>
+      <c r="E32" s="6"/>
+      <c r="F32" t="s">
+        <v>43</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="24"/>
-      <c r="F33" s="26" t="s">
-        <v>45</v>
+      <c r="F33" t="s">
+        <v>44</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="26" t="s">
-        <v>46</v>
+      <c r="F34" t="s">
+        <v>45</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="24"/>
-      <c r="F35" s="26" t="s">
-        <v>47</v>
+      <c r="E35" s="6"/>
+      <c r="F35" t="s">
+        <v>46</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="24"/>
-      <c r="F36" s="26" t="s">
-        <v>48</v>
+      <c r="F36" t="s">
+        <v>47</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="26" t="s">
-        <v>49</v>
+      <c r="F37" t="s">
+        <v>48</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="24"/>
-      <c r="F38" s="26" t="s">
-        <v>50</v>
+      <c r="E38" s="6"/>
+      <c r="F38" t="s">
+        <v>49</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
       <c r="D39" s="24"/>
-      <c r="F39" s="26" t="s">
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="F40" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G40" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F40" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F41" s="26" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G42" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F42" s="26" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G43" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F43" s="26" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G44" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F44" s="26" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G45" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F45" s="26" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G46" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F46" s="26" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
         <v>58</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G47" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F47" s="26" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G48" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F48" s="26" t="s">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G49" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="26" t="s">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G50" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="26" t="s">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
         <v>62</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G51" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="26" t="s">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G52" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="26" t="s">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G53" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="26" t="s">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G54" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="26" t="s">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G55" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="26" t="s">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G56" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F56" s="26" t="s">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G57" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="26" t="s">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G58" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F58" s="26" t="s">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G59" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F59" s="26" t="s">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G60" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F60" s="26" t="s">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G61" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F61" s="26" t="s">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
         <v>73</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G62" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F62" s="26" t="s">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
         <v>74</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G63" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F63" s="26" t="s">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
         <v>75</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G64" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F64" s="26" t="s">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G65" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F65" s="26" t="s">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
         <v>77</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G66" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F66" s="26" t="s">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
         <v>315</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G67" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F67" s="26" t="s">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
         <v>316</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G68" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F68" s="26" t="s">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
         <v>317</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="G69" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F69" s="26" t="s">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
         <v>318</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G70" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F70" s="26" t="s">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
         <v>319</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="G71" s="21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F71" s="26" t="s">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
         <v>320</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G72" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F72" s="26" t="s">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
         <v>321</v>
       </c>
-      <c r="G72" s="21" t="s">
+      <c r="G73" s="21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F73" s="26" t="s">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
         <v>322</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G74" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F74" s="26" t="s">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
         <v>323</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G75" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F75" s="26" t="s">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
         <v>324</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G76" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F76" s="26" t="s">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
         <v>78</v>
       </c>
-      <c r="G76" s="21" t="s">
+      <c r="G77" s="21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F77" s="26" t="s">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
         <v>79</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G78" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F78" s="26" t="s">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
         <v>80</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="G79" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F79" s="26" t="s">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G80" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F80" s="26" t="s">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
         <v>81</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G81" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F81" s="26" t="s">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
         <v>82</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G82" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F82" s="26" t="s">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
         <v>83</v>
       </c>
-      <c r="G82" s="21" t="s">
+      <c r="G83" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F83" s="26" t="s">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
         <v>84</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G84" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F84" s="26" t="s">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
         <v>85</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G85" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" s="26" t="s">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
         <v>86</v>
       </c>
-      <c r="G85" s="21" t="s">
+      <c r="G86" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" s="26" t="s">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
         <v>325</v>
       </c>
-      <c r="G86" s="21" t="s">
+      <c r="G87" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" s="26" t="s">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
         <v>326</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="G88" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F88" s="26" t="s">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
         <v>327</v>
       </c>
-      <c r="G88" s="21" t="s">
+      <c r="G89" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F89" s="26" t="s">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
         <v>328</v>
       </c>
-      <c r="G89" s="21" t="s">
+      <c r="G90" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F90" s="26" t="s">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
         <v>329</v>
       </c>
-      <c r="G90" s="21" t="s">
+      <c r="G91" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F91" s="26" t="s">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
         <v>330</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="G92" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F92" s="26" t="s">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
         <v>331</v>
       </c>
-      <c r="G92" s="21" t="s">
+      <c r="G93" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F93" s="26" t="s">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
         <v>332</v>
       </c>
-      <c r="G93" s="21" t="s">
+      <c r="G94" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F94" s="26" t="s">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
         <v>333</v>
       </c>
-      <c r="G94" s="21" t="s">
+      <c r="G95" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F95" s="26" t="s">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
         <v>334</v>
       </c>
-      <c r="G95" s="21" t="s">
+      <c r="G96" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F96" s="26" t="s">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
         <v>335</v>
       </c>
-      <c r="G96" s="21" t="s">
+      <c r="G97" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F97" s="26" t="s">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
         <v>336</v>
       </c>
-      <c r="G97" s="21" t="s">
+      <c r="G98" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F98" s="26" t="s">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
         <v>337</v>
       </c>
-      <c r="G98" s="21" t="s">
+      <c r="G99" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F99" s="26" t="s">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
         <v>338</v>
       </c>
-      <c r="G99" s="21" t="s">
+      <c r="G100" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F100" s="26" t="s">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
         <v>339</v>
       </c>
-      <c r="G100" s="21" t="s">
+      <c r="G101" s="21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F101" s="26" t="s">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
         <v>340</v>
       </c>
-      <c r="G101" s="21" t="s">
+      <c r="G102" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F102" s="26" t="s">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
         <v>341</v>
       </c>
-      <c r="G102" s="21" t="s">
+      <c r="G103" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F103" s="26" t="s">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
         <v>342</v>
       </c>
-      <c r="G103" s="21" t="s">
+      <c r="G104" s="21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F104" s="26" t="s">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
         <v>343</v>
       </c>
-      <c r="G104" s="21" t="s">
+      <c r="G105" s="21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F105" s="26" t="s">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
         <v>344</v>
       </c>
-      <c r="G105" s="21" t="s">
+      <c r="G106" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F106" s="26" t="s">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
         <v>345</v>
       </c>
-      <c r="G106" s="21" t="s">
+      <c r="G107" s="21" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F107" s="26" t="s">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
         <v>346</v>
       </c>
-      <c r="G107" s="21" t="s">
+      <c r="G108" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F108" s="26" t="s">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
         <v>347</v>
       </c>
-      <c r="G108" s="21" t="s">
+      <c r="G109" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F109" s="26" t="s">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
         <v>348</v>
       </c>
-      <c r="G109" s="21" t="s">
+      <c r="G110" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F110" s="26" t="s">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
         <v>349</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="G111" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F111" s="26" t="s">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
         <v>350</v>
       </c>
-      <c r="G111" s="21" t="s">
+      <c r="G112" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F112" s="26" t="s">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
         <v>351</v>
       </c>
-      <c r="G112" s="21" t="s">
+      <c r="G113" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F113" s="26" t="s">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
         <v>352</v>
       </c>
-      <c r="G113" s="21" t="s">
+      <c r="G114" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F114" s="26" t="s">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
         <v>353</v>
       </c>
-      <c r="G114" s="21" t="s">
+      <c r="G115" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F115" s="26" t="s">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
         <v>354</v>
       </c>
-      <c r="G115" s="21" t="s">
+      <c r="G116" s="21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F116" s="26" t="s">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
         <v>355</v>
       </c>
-      <c r="G116" s="21" t="s">
+      <c r="G117" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F117" s="26" t="s">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
         <v>356</v>
       </c>
-      <c r="G117" s="21" t="s">
+      <c r="G118" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F118" s="26" t="s">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
         <v>357</v>
       </c>
-      <c r="G118" s="21" t="s">
+      <c r="G119" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F119" s="26" t="s">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
         <v>358</v>
       </c>
-      <c r="G119" s="21" t="s">
+      <c r="G120" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F120" s="26" t="s">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
         <v>359</v>
       </c>
-      <c r="G120" s="21" t="s">
+      <c r="G121" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F121" s="26" t="s">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
         <v>360</v>
       </c>
-      <c r="G121" s="21" t="s">
+      <c r="G122" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F122" s="26" t="s">
+    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
         <v>361</v>
       </c>
-      <c r="G122" s="21" t="s">
+      <c r="G123" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F123" s="26" t="s">
+    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
         <v>362</v>
       </c>
-      <c r="G123" s="21" t="s">
+      <c r="G124" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F124" s="26" t="s">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
         <v>363</v>
       </c>
-      <c r="G124" s="21" t="s">
+      <c r="G125" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F125" s="26" t="s">
+    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F126" t="s">
         <v>364</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="G126" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F126" s="26" t="s">
+    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F127" t="s">
         <v>365</v>
       </c>
-      <c r="G126" s="21" t="s">
+      <c r="G127" s="21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F127" s="26" t="s">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
         <v>366</v>
       </c>
-      <c r="G127" s="21" t="s">
+      <c r="G128" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F128" s="26" t="s">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
         <v>367</v>
       </c>
-      <c r="G128" s="21" t="s">
+      <c r="G129" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F129" s="26" t="s">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
         <v>368</v>
       </c>
-      <c r="G129" s="21" t="s">
+      <c r="G130" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F130" s="26" t="s">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F131" t="s">
         <v>369</v>
       </c>
-      <c r="G130" s="21" t="s">
+      <c r="G131" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F131" s="26" t="s">
+    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F132" t="s">
         <v>370</v>
       </c>
-      <c r="G131" s="21" t="s">
+      <c r="G132" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F132" s="26" t="s">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F133" t="s">
         <v>371</v>
       </c>
-      <c r="G132" s="21" t="s">
+      <c r="G133" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F133" s="26" t="s">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
         <v>372</v>
       </c>
-      <c r="G133" s="21" t="s">
+      <c r="G134" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F134" s="26" t="s">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F135" t="s">
         <v>373</v>
       </c>
-      <c r="G134" s="21" t="s">
+      <c r="G135" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F135" s="26" t="s">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
         <v>374</v>
       </c>
-      <c r="G135" s="21" t="s">
+      <c r="G136" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F136" s="26" t="s">
+    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
         <v>375</v>
       </c>
-      <c r="G136" s="21" t="s">
+      <c r="G137" s="21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F137" s="26" t="s">
+    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
         <v>376</v>
       </c>
-      <c r="G137" s="21" t="s">
+      <c r="G138" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F138" s="26" t="s">
+    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F139" t="s">
         <v>377</v>
       </c>
-      <c r="G138" s="21" t="s">
+      <c r="G139" s="21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F139" s="26" t="s">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
         <v>378</v>
       </c>
-      <c r="G139" s="21" t="s">
+      <c r="G140" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F140" s="26" t="s">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F141" t="s">
         <v>379</v>
       </c>
-      <c r="G140" s="21" t="s">
+      <c r="G141" s="21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F141" s="26" t="s">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F142" t="s">
         <v>380</v>
       </c>
-      <c r="G141" s="21" t="s">
+      <c r="G142" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F142" s="26" t="s">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
         <v>381</v>
       </c>
-      <c r="G142" s="21" t="s">
+      <c r="G143" s="21" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F143" s="26" t="s">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
         <v>382</v>
       </c>
-      <c r="G143" s="21" t="s">
+      <c r="G144" s="21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F144" s="26" t="s">
+    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
         <v>383</v>
       </c>
-      <c r="G144" s="21" t="s">
+      <c r="G145" s="21" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F145" s="26" t="s">
+    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F146" t="s">
         <v>384</v>
       </c>
-      <c r="G145" s="21" t="s">
+      <c r="G146" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F146" s="26" t="s">
+    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F147" t="s">
         <v>385</v>
       </c>
-      <c r="G146" s="21" t="s">
+      <c r="G147" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F147" s="26" t="s">
+    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
         <v>386</v>
       </c>
-      <c r="G147" s="21" t="s">
+      <c r="G148" s="21" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F148" s="26" t="s">
+    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F149" t="s">
         <v>387</v>
       </c>
-      <c r="G148" s="21" t="s">
+      <c r="G149" s="21" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F149" s="26" t="s">
+    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F150" t="s">
         <v>388</v>
       </c>
-      <c r="G149" s="21" t="s">
+      <c r="G150" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F150" s="26" t="s">
+    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F151" t="s">
         <v>389</v>
       </c>
-      <c r="G150" s="21" t="s">
+      <c r="G151" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F151" s="26" t="s">
+    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F152" t="s">
         <v>390</v>
       </c>
-      <c r="G151" s="21" t="s">
+      <c r="G152" s="21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F152" s="26" t="s">
+    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F153" t="s">
         <v>87</v>
       </c>
-      <c r="G152" s="21" t="s">
+      <c r="G153" s="21" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F153" s="26" t="s">
+    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F154" t="s">
         <v>88</v>
       </c>
-      <c r="G153" s="21" t="s">
+      <c r="G154" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F154" s="26" t="s">
+    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F155" t="s">
         <v>89</v>
       </c>
-      <c r="G154" s="21" t="s">
+      <c r="G155" s="21" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F155" s="26" t="s">
+    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F156" t="s">
         <v>391</v>
       </c>
-      <c r="G155" s="21" t="s">
+      <c r="G156" s="21" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F156" s="26" t="s">
+    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F157" t="s">
         <v>392</v>
       </c>
-      <c r="G156" s="21" t="s">
+      <c r="G157" s="21" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F157" s="26" t="s">
+    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F158" t="s">
         <v>393</v>
       </c>
-      <c r="G157" s="21" t="s">
+      <c r="G158" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F158" s="26" t="s">
+    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F159" t="s">
         <v>394</v>
       </c>
-      <c r="G158" s="21" t="s">
+      <c r="G159" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F159" s="26" t="s">
+    <row r="160" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F160" t="s">
         <v>395</v>
       </c>
-      <c r="G159" s="21" t="s">
+      <c r="G160" s="21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="160" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G160" s="21" t="s">
+    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G161" s="21" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6BC06-4362-4F9E-958D-490E26A58276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2DEB81-3F44-4F5D-B285-D7D55B755826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="399">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1331,6 +1331,9 @@
   </si>
   <si>
     <t>redes de arrastres- sedales y anzuelos</t>
+  </si>
+  <si>
+    <t>FT POTA</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1983,7 @@
   <dimension ref="A1:BL161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="14" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>398</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>289</v>
@@ -3746,24 +3749,24 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2DEB81-3F44-4F5D-B285-D7D55B755826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6C86B-4803-49DA-9B98-082F8AE6A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="400">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1334,6 +1334,9 @@
   </si>
   <si>
     <t>FT POTA</t>
+  </si>
+  <si>
+    <t>Sedales y anzuelos</t>
   </si>
 </sst>
 </file>
@@ -1982,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2796,6 +2799,9 @@
       <c r="G42" s="21" t="s">
         <v>129</v>
       </c>
+      <c r="H42" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
@@ -3749,24 +3755,24 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6C86B-4803-49DA-9B98-082F8AE6A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1788DCD2-997F-4306-B819-747255CFB48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="408">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -184,6 +184,1110 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Pijota eviscerada</t>
+  </si>
+  <si>
+    <t>Merluza volanta +4 extra</t>
+  </si>
+  <si>
+    <t>Merluccius merluccius</t>
+  </si>
+  <si>
+    <t>FAO 27.I</t>
+  </si>
+  <si>
+    <t>FAO 27.IIa</t>
+  </si>
+  <si>
+    <t>FAO 27.IIb</t>
+  </si>
+  <si>
+    <t>FAO 27.IIIa</t>
+  </si>
+  <si>
+    <t>FAO 27.IIIb</t>
+  </si>
+  <si>
+    <t>FAO 27.IIIc</t>
+  </si>
+  <si>
+    <t>FAO 27.IIId</t>
+  </si>
+  <si>
+    <t>FAO 27.IVa</t>
+  </si>
+  <si>
+    <t>FAO 27.IVb</t>
+  </si>
+  <si>
+    <t>FAO 27.IVc</t>
+  </si>
+  <si>
+    <t>FAO 27.Va</t>
+  </si>
+  <si>
+    <t>FAO 27.Va1</t>
+  </si>
+  <si>
+    <t>FAO 27.Va2</t>
+  </si>
+  <si>
+    <t>FAO 27.Vb</t>
+  </si>
+  <si>
+    <t>FAO 27.Vb1</t>
+  </si>
+  <si>
+    <t>FAO 27.Vb2</t>
+  </si>
+  <si>
+    <t>FAO 27.VIa</t>
+  </si>
+  <si>
+    <t>FAO 27.VIb</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIa</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIb</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIc</t>
+  </si>
+  <si>
+    <t>FAO 27.VIId</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIe</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIf</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIg</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIh</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIj</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIk</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIa</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIb</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIc</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIId</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIe</t>
+  </si>
+  <si>
+    <t>FAO 27.IXa</t>
+  </si>
+  <si>
+    <t>FAO 27.IXb</t>
+  </si>
+  <si>
+    <t>FAO 27.Xa</t>
+  </si>
+  <si>
+    <t>FAO 27.Xb</t>
+  </si>
+  <si>
+    <t>FAO 27.XIIa</t>
+  </si>
+  <si>
+    <t>FAO 27.XIVa</t>
+  </si>
+  <si>
+    <t>FAO 27.XIVb</t>
+  </si>
+  <si>
+    <t>FAO 37.1.1</t>
+  </si>
+  <si>
+    <t>FAO 37.1.2</t>
+  </si>
+  <si>
+    <t>FAO 37.1.3</t>
+  </si>
+  <si>
+    <t>FAO 37.2.2</t>
+  </si>
+  <si>
+    <t>FAO 37.3.1</t>
+  </si>
+  <si>
+    <t>FAO 37.3.2</t>
+  </si>
+  <si>
+    <t>FAO 37.4.1</t>
+  </si>
+  <si>
+    <t>FAO 37.4.2</t>
+  </si>
+  <si>
+    <t>FAO 37.4.3</t>
+  </si>
+  <si>
+    <t>FAO 87.3.1</t>
+  </si>
+  <si>
+    <t>FAO 87.3.2</t>
+  </si>
+  <si>
+    <t>FAO 87.3.3</t>
+  </si>
+  <si>
+    <t>Afganistán</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Arabia Saudita</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>Belice</t>
+  </si>
+  <si>
+    <t>Benín</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia y Herzegovina</t>
+  </si>
+  <si>
+    <t>Botsuana</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Brunéi</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoras</t>
+  </si>
+  <si>
+    <t>Corea del Norte</t>
+  </si>
+  <si>
+    <t>Corea del Sur</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croacia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Eslovaquia</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Etiopía</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Gabón</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bisáu</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungría</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Irán</t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t>Islandia</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
+    <t>Jordania</t>
+  </si>
+  <si>
+    <t>Kazajistán</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>Kirguistán</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libia</t>
+  </si>
+  <si>
+    <t>Lituania</t>
+  </si>
+  <si>
+    <t>Luxemburgo</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malasia</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Maldivas</t>
+  </si>
+  <si>
+    <t>Malí</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>Mónaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Níger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>Nueva Zelanda</t>
+  </si>
+  <si>
+    <t>Omán</t>
+  </si>
+  <si>
+    <t>Pakistán</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Papúa Nueva Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>República Centroafricana</t>
+  </si>
+  <si>
+    <t>República Checa</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>Rumanía</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leona</t>
+  </si>
+  <si>
+    <t>Singapur</t>
+  </si>
+  <si>
+    <t>Siria</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudáfrica</t>
+  </si>
+  <si>
+    <t>Sudán</t>
+  </si>
+  <si>
+    <t>Suecia</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Surinam</t>
+  </si>
+  <si>
+    <t>Tailandia</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad y Tobago</t>
+  </si>
+  <si>
+    <t>Túnez</t>
+  </si>
+  <si>
+    <t>Turkmenistán</t>
+  </si>
+  <si>
+    <t>Turquía</t>
+  </si>
+  <si>
+    <t>Ucrania</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistán</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabue</t>
+  </si>
+  <si>
+    <t>Arpón y artes de captura por clavado</t>
+  </si>
+  <si>
+    <t>Atarraya</t>
+  </si>
+  <si>
+    <t>Buques con red de cerco</t>
+  </si>
+  <si>
+    <t>Dragas</t>
+  </si>
+  <si>
+    <t>Red de cerco de playa</t>
+  </si>
+  <si>
+    <t>Red de cerco izada</t>
+  </si>
+  <si>
+    <t>Red de cerco izada desde tierra</t>
+  </si>
+  <si>
+    <t>Redes izadas desde embarcación</t>
+  </si>
+  <si>
+    <t>Redes izadas desde orilla</t>
+  </si>
+  <si>
+    <t>Redes de izado manual</t>
+  </si>
+  <si>
+    <t>Red de tiro por botes</t>
+  </si>
+  <si>
+    <t>Red de tiro danesa</t>
+  </si>
+  <si>
+    <t>Redes de enmalle de fondo</t>
+  </si>
+  <si>
+    <t>Redes de enmalle de superficie</t>
+  </si>
+  <si>
+    <t>Red de trasmallo</t>
+  </si>
+  <si>
+    <t>Redes combinadas (enmalle/trasmallo)</t>
+  </si>
+  <si>
+    <t>Nasas</t>
+  </si>
+  <si>
+    <t>Trampas</t>
+  </si>
+  <si>
+    <t>Palangre de fondo</t>
+  </si>
+  <si>
+    <t>Palangre de superficie</t>
+  </si>
+  <si>
+    <t>Sedales de mano</t>
+  </si>
+  <si>
+    <t>Curricán (línea de arrastre)</t>
+  </si>
+  <si>
+    <t>Redes de arrastre de fondo</t>
+  </si>
+  <si>
+    <t>Redes de arrastre pelágico</t>
+  </si>
+  <si>
+    <t>Red de arrastre gemela</t>
+  </si>
+  <si>
+    <t>Red de arrastre de vara (beam trawl)</t>
+  </si>
+  <si>
+    <t>Red de arrastre de cuatro puertas</t>
+  </si>
+  <si>
+    <t>Red de arrastre combinada (fondo/pelágico)</t>
+  </si>
+  <si>
+    <t>Red de arrastre de medio agua</t>
+  </si>
+  <si>
+    <t>Pesca extractiva a mano</t>
+  </si>
+  <si>
+    <t>Pesca submarina</t>
+  </si>
+  <si>
+    <t>Artes de cerco con trampas</t>
+  </si>
+  <si>
+    <t>Trasmallo de deriva</t>
+  </si>
+  <si>
+    <t>Arte de cerco con luces</t>
+  </si>
+  <si>
+    <t>Red de izado de poste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red de cerco con jareta </t>
+  </si>
+  <si>
+    <t>Red de cerco</t>
+  </si>
+  <si>
+    <t>Redes de tiro</t>
+  </si>
+  <si>
+    <t>Boquerón eviscerado para vinagre</t>
+  </si>
+  <si>
+    <t>Pulpo T2 descongelado</t>
+  </si>
+  <si>
+    <t>Pota en anilla descongelada</t>
+  </si>
+  <si>
+    <t>Boquerón eviscerado</t>
+  </si>
+  <si>
+    <t>FAO 03</t>
+  </si>
+  <si>
+    <t>FAO 04</t>
+  </si>
+  <si>
+    <t>FAO 05</t>
+  </si>
+  <si>
+    <t>FAO 06</t>
+  </si>
+  <si>
+    <t>FAO 07</t>
+  </si>
+  <si>
+    <t>FAO 08</t>
+  </si>
+  <si>
+    <t>FAO 18</t>
+  </si>
+  <si>
+    <t>FAO 21</t>
+  </si>
+  <si>
+    <t>FAO 21.1</t>
+  </si>
+  <si>
+    <t>FAO 21.1.1</t>
+  </si>
+  <si>
+    <t>FAO 21.1.2</t>
+  </si>
+  <si>
+    <t>FAO 21.2</t>
+  </si>
+  <si>
+    <t>FAO 21.2.1</t>
+  </si>
+  <si>
+    <t>FAO 21.2.2</t>
+  </si>
+  <si>
+    <t>FAO 21.3</t>
+  </si>
+  <si>
+    <t>FAO 21.3.1</t>
+  </si>
+  <si>
+    <t>FAO 21.3.2</t>
+  </si>
+  <si>
+    <t>FAO 21.4</t>
+  </si>
+  <si>
+    <t>FAO 21.4.1</t>
+  </si>
+  <si>
+    <t>FAO 21.4.2</t>
+  </si>
+  <si>
+    <t>FAO 21.5</t>
+  </si>
+  <si>
+    <t>FAO 21.6</t>
+  </si>
+  <si>
+    <t>FAO 21.7</t>
+  </si>
+  <si>
+    <t>FAO 27</t>
+  </si>
+  <si>
+    <t>FAO 31</t>
+  </si>
+  <si>
+    <t>FAO 31.1</t>
+  </si>
+  <si>
+    <t>FAO 31.2</t>
+  </si>
+  <si>
+    <t>FAO 31.3</t>
+  </si>
+  <si>
+    <t>FAO 34</t>
+  </si>
+  <si>
+    <t>FAO 34.1</t>
+  </si>
+  <si>
+    <t>FAO 34.2</t>
+  </si>
+  <si>
+    <t>FAO 34.3</t>
+  </si>
+  <si>
+    <t>FAO 34.4</t>
+  </si>
+  <si>
+    <t>FAO 37</t>
+  </si>
+  <si>
+    <t>FAO 41</t>
+  </si>
+  <si>
+    <t>FAO 41.1</t>
+  </si>
+  <si>
+    <t>FAO 41.2</t>
+  </si>
+  <si>
+    <t>FAO 41.3</t>
+  </si>
+  <si>
+    <t>FAO 47</t>
+  </si>
+  <si>
+    <t>FAO 47.1</t>
+  </si>
+  <si>
+    <t>FAO 47.2</t>
+  </si>
+  <si>
+    <t>FAO 47.3</t>
+  </si>
+  <si>
+    <t>FAO 48</t>
+  </si>
+  <si>
+    <t>FAO 48.1</t>
+  </si>
+  <si>
+    <t>FAO 48.2</t>
+  </si>
+  <si>
+    <t>FAO 48.3</t>
+  </si>
+  <si>
+    <t>FAO 48.4</t>
+  </si>
+  <si>
+    <t>FAO 48.5</t>
+  </si>
+  <si>
+    <t>FAO 51</t>
+  </si>
+  <si>
+    <t>FAO 51.1</t>
+  </si>
+  <si>
+    <t>FAO 51.1.1</t>
+  </si>
+  <si>
+    <t>FAO 51.1.2</t>
+  </si>
+  <si>
+    <t>FAO 51.1.3</t>
+  </si>
+  <si>
+    <t>FAO 51.1.4</t>
+  </si>
+  <si>
+    <t>FAO 51.1.5</t>
+  </si>
+  <si>
+    <t>FAO 51.2</t>
+  </si>
+  <si>
+    <t>FAO 51.3</t>
+  </si>
+  <si>
+    <t>FAO 51.4</t>
+  </si>
+  <si>
+    <t>FAO 51.5</t>
+  </si>
+  <si>
+    <t>FAO 57</t>
+  </si>
+  <si>
+    <t>FAO 57.1</t>
+  </si>
+  <si>
+    <t>FAO 57.2</t>
+  </si>
+  <si>
+    <t>FAO 57.3</t>
+  </si>
+  <si>
+    <t>FAO 57.4</t>
+  </si>
+  <si>
+    <t>FAO 58</t>
+  </si>
+  <si>
+    <t>FAO 58.4.1</t>
+  </si>
+  <si>
+    <t>FAO 58.4.2</t>
+  </si>
+  <si>
+    <t>FAO 58.4.3</t>
+  </si>
+  <si>
+    <t>FAO 58.4.4</t>
+  </si>
+  <si>
+    <t>FAO 58.5.1</t>
+  </si>
+  <si>
+    <t>FAO 58.5.2</t>
+  </si>
+  <si>
+    <t>FAO 58.6</t>
+  </si>
+  <si>
+    <t>FAO 58.7</t>
+  </si>
+  <si>
+    <t>FAO 58.8</t>
+  </si>
+  <si>
+    <t>FAO 61</t>
+  </si>
+  <si>
+    <t>FAO 61.1</t>
+  </si>
+  <si>
+    <t>FAO 61.2</t>
+  </si>
+  <si>
+    <t>FAO 61.3</t>
+  </si>
+  <si>
+    <t>FAO 61.4</t>
+  </si>
+  <si>
+    <t>FAO 67</t>
+  </si>
+  <si>
+    <t>FAO 67.1</t>
+  </si>
+  <si>
+    <t>FAO 67.2</t>
+  </si>
+  <si>
+    <t>FAO 67.3</t>
+  </si>
+  <si>
+    <t>FAO 71</t>
+  </si>
+  <si>
+    <t>FAO 71.1</t>
+  </si>
+  <si>
+    <t>FAO 71.2</t>
+  </si>
+  <si>
+    <t>FAO 71.3</t>
+  </si>
+  <si>
+    <t>FAO 71.4</t>
+  </si>
+  <si>
+    <t>FAO 71.5</t>
+  </si>
+  <si>
+    <t>FAO 77</t>
+  </si>
+  <si>
+    <t>FAO 77.1</t>
+  </si>
+  <si>
+    <t>FAO 77.2</t>
+  </si>
+  <si>
+    <t>FAO 77.3</t>
+  </si>
+  <si>
+    <t>FAO 81</t>
+  </si>
+  <si>
+    <t>FAO 81.1</t>
+  </si>
+  <si>
+    <t>FAO 81.2</t>
+  </si>
+  <si>
+    <t>FAO 81.3</t>
+  </si>
+  <si>
+    <t>FAO 87</t>
+  </si>
+  <si>
+    <t>FAO 87.1</t>
+  </si>
+  <si>
+    <t>FAO 87.2</t>
+  </si>
+  <si>
+    <t>FAO 87.4</t>
+  </si>
+  <si>
+    <t>FAO 88</t>
+  </si>
+  <si>
+    <t>FAO 88.1</t>
+  </si>
+  <si>
+    <t>FAO 88.2</t>
+  </si>
+  <si>
+    <t>FAO 88.3</t>
+  </si>
+  <si>
+    <t>Nasas y trampas</t>
+  </si>
+  <si>
+    <t>redes de arrastres- sedales y anzuelos</t>
+  </si>
+  <si>
+    <t>FT POTA</t>
+  </si>
+  <si>
+    <t>Sedales y anzuelos</t>
+  </si>
+  <si>
+    <t>FT CRUSTACEO FRESCO</t>
+  </si>
+  <si>
+    <t>Gamba blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parapenaeus longirostris </t>
   </si>
   <si>
     <r>
@@ -229,7 +1333,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> de sodio (E-223), ascorbato de sodio (E- 301) y citrato de sodio (E-331)], estabilizante difosfato (E-450. Contiene </t>
+      <t xml:space="preserve"> de sodio (E-223), ascorbato de sodio (E- 301) y citrato de sodio (E-331)], estabilizante difosfato (E-450). Contiene </t>
     </r>
     <r>
       <rPr>
@@ -244,1099 +1348,75 @@
     </r>
   </si>
   <si>
-    <t>Pijota eviscerada</t>
-  </si>
-  <si>
-    <t>Merluza volanta +4 extra</t>
-  </si>
-  <si>
-    <t>Merluccius merluccius</t>
-  </si>
-  <si>
-    <t>FAO 27.I</t>
-  </si>
-  <si>
-    <t>FAO 27.IIa</t>
-  </si>
-  <si>
-    <t>FAO 27.IIb</t>
-  </si>
-  <si>
-    <t>FAO 27.IIIa</t>
-  </si>
-  <si>
-    <t>FAO 27.IIIb</t>
-  </si>
-  <si>
-    <t>FAO 27.IIIc</t>
-  </si>
-  <si>
-    <t>FAO 27.IIId</t>
-  </si>
-  <si>
-    <t>FAO 27.IVa</t>
-  </si>
-  <si>
-    <t>FAO 27.IVb</t>
-  </si>
-  <si>
-    <t>FAO 27.IVc</t>
-  </si>
-  <si>
-    <t>FAO 27.Va</t>
-  </si>
-  <si>
-    <t>FAO 27.Va1</t>
-  </si>
-  <si>
-    <t>FAO 27.Va2</t>
-  </si>
-  <si>
-    <t>FAO 27.Vb</t>
-  </si>
-  <si>
-    <t>FAO 27.Vb1</t>
-  </si>
-  <si>
-    <t>FAO 27.Vb2</t>
-  </si>
-  <si>
-    <t>FAO 27.VIa</t>
-  </si>
-  <si>
-    <t>FAO 27.VIb</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIa</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIb</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIc</t>
-  </si>
-  <si>
-    <t>FAO 27.VIId</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIe</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIf</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIg</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIh</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIj</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIk</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIIa</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIIb</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIIc</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIId</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIIe</t>
-  </si>
-  <si>
-    <t>FAO 27.IXa</t>
-  </si>
-  <si>
-    <t>FAO 27.IXb</t>
-  </si>
-  <si>
-    <t>FAO 27.Xa</t>
-  </si>
-  <si>
-    <t>FAO 27.Xb</t>
-  </si>
-  <si>
-    <t>FAO 27.XIIa</t>
-  </si>
-  <si>
-    <t>FAO 27.XIVa</t>
-  </si>
-  <si>
-    <t>FAO 27.XIVb</t>
-  </si>
-  <si>
-    <t>FAO 37.1.1</t>
-  </si>
-  <si>
-    <t>FAO 37.1.2</t>
-  </si>
-  <si>
-    <t>FAO 37.1.3</t>
-  </si>
-  <si>
-    <t>FAO 37.2.2</t>
-  </si>
-  <si>
-    <t>FAO 37.3.1</t>
-  </si>
-  <si>
-    <t>FAO 37.3.2</t>
-  </si>
-  <si>
-    <t>FAO 37.4.1</t>
-  </si>
-  <si>
-    <t>FAO 37.4.2</t>
-  </si>
-  <si>
-    <t>FAO 37.4.3</t>
-  </si>
-  <si>
-    <t>FAO 87.3.1</t>
-  </si>
-  <si>
-    <t>FAO 87.3.2</t>
-  </si>
-  <si>
-    <t>FAO 87.3.3</t>
-  </si>
-  <si>
-    <t>Afganistán</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Alemania</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Arabia Saudita</t>
-  </si>
-  <si>
-    <t>Argelia</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bélgica</t>
-  </si>
-  <si>
-    <t>Belice</t>
-  </si>
-  <si>
-    <t>Benín</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bosnia y Herzegovina</t>
-  </si>
-  <si>
-    <t>Botsuana</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Brunéi</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Camboya</t>
-  </si>
-  <si>
-    <t>Camerún</t>
-  </si>
-  <si>
-    <t>Canadá</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Chipre</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoras</t>
-  </si>
-  <si>
-    <t>Corea del Norte</t>
-  </si>
-  <si>
-    <t>Corea del Sur</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Croacia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Dinamarca</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egipto</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Emiratos Árabes Unidos</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Eslovaquia</t>
-  </si>
-  <si>
-    <t>Eslovenia</t>
-  </si>
-  <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Etiopía</t>
-  </si>
-  <si>
-    <t>Filipinas</t>
-  </si>
-  <si>
-    <t>Finlandia</t>
-  </si>
-  <si>
-    <t>Francia</t>
-  </si>
-  <si>
-    <t>Gabón</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Grecia</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bisáu</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haití</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hungría</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Irak</t>
-  </si>
-  <si>
-    <t>Irán</t>
-  </si>
-  <si>
-    <t>Irlanda</t>
-  </si>
-  <si>
-    <t>Islandia</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italia</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japón</t>
-  </si>
-  <si>
-    <t>Jordania</t>
-  </si>
-  <si>
-    <t>Kazajistán</t>
-  </si>
-  <si>
-    <t>Kenia</t>
-  </si>
-  <si>
-    <t>Kirguistán</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Letonia</t>
-  </si>
-  <si>
-    <t>Líbano</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libia</t>
-  </si>
-  <si>
-    <t>Lituania</t>
-  </si>
-  <si>
-    <t>Luxemburgo</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malasia</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Maldivas</t>
-  </si>
-  <si>
-    <t>Malí</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marruecos</t>
-  </si>
-  <si>
-    <t>Mauricio</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Moldavia</t>
-  </si>
-  <si>
-    <t>Mónaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Níger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Noruega</t>
-  </si>
-  <si>
-    <t>Nueva Zelanda</t>
-  </si>
-  <si>
-    <t>Omán</t>
-  </si>
-  <si>
-    <t>Pakistán</t>
-  </si>
-  <si>
-    <t>Panamá</t>
-  </si>
-  <si>
-    <t>Papúa Nueva Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Perú</t>
-  </si>
-  <si>
-    <t>Polonia</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Reino Unido</t>
-  </si>
-  <si>
-    <t>República Centroafricana</t>
-  </si>
-  <si>
-    <t>República Checa</t>
-  </si>
-  <si>
-    <t>República Dominicana</t>
-  </si>
-  <si>
-    <t>Rumanía</t>
-  </si>
-  <si>
-    <t>Rusia</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leona</t>
-  </si>
-  <si>
-    <t>Singapur</t>
-  </si>
-  <si>
-    <t>Siria</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudáfrica</t>
-  </si>
-  <si>
-    <t>Sudán</t>
-  </si>
-  <si>
-    <t>Suecia</t>
-  </si>
-  <si>
-    <t>Suiza</t>
-  </si>
-  <si>
-    <t>Surinam</t>
-  </si>
-  <si>
-    <t>Tailandia</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad y Tobago</t>
-  </si>
-  <si>
-    <t>Túnez</t>
-  </si>
-  <si>
-    <t>Turkmenistán</t>
-  </si>
-  <si>
-    <t>Turquía</t>
-  </si>
-  <si>
-    <t>Ucrania</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistán</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabue</t>
-  </si>
-  <si>
-    <t>Arpón y artes de captura por clavado</t>
-  </si>
-  <si>
-    <t>Atarraya</t>
-  </si>
-  <si>
-    <t>Buques con red de cerco</t>
-  </si>
-  <si>
-    <t>Dragas</t>
-  </si>
-  <si>
-    <t>Red de cerco de playa</t>
-  </si>
-  <si>
-    <t>Red de cerco izada</t>
-  </si>
-  <si>
-    <t>Red de cerco izada desde tierra</t>
-  </si>
-  <si>
-    <t>Redes izadas desde embarcación</t>
-  </si>
-  <si>
-    <t>Redes izadas desde orilla</t>
-  </si>
-  <si>
-    <t>Redes de izado manual</t>
-  </si>
-  <si>
-    <t>Red de tiro por botes</t>
-  </si>
-  <si>
-    <t>Red de tiro danesa</t>
-  </si>
-  <si>
-    <t>Redes de enmalle de fondo</t>
-  </si>
-  <si>
-    <t>Redes de enmalle de superficie</t>
-  </si>
-  <si>
-    <t>Red de trasmallo</t>
-  </si>
-  <si>
-    <t>Redes combinadas (enmalle/trasmallo)</t>
-  </si>
-  <si>
-    <t>Nasas</t>
-  </si>
-  <si>
-    <t>Trampas</t>
-  </si>
-  <si>
-    <t>Palangre de fondo</t>
-  </si>
-  <si>
-    <t>Palangre de superficie</t>
-  </si>
-  <si>
-    <t>Sedales de mano</t>
-  </si>
-  <si>
-    <t>Curricán (línea de arrastre)</t>
-  </si>
-  <si>
-    <t>Redes de arrastre de fondo</t>
-  </si>
-  <si>
-    <t>Redes de arrastre pelágico</t>
-  </si>
-  <si>
-    <t>Red de arrastre gemela</t>
-  </si>
-  <si>
-    <t>Red de arrastre de vara (beam trawl)</t>
-  </si>
-  <si>
-    <t>Red de arrastre de cuatro puertas</t>
-  </si>
-  <si>
-    <t>Red de arrastre combinada (fondo/pelágico)</t>
-  </si>
-  <si>
-    <t>Red de arrastre de medio agua</t>
-  </si>
-  <si>
-    <t>Pesca extractiva a mano</t>
-  </si>
-  <si>
-    <t>Pesca submarina</t>
-  </si>
-  <si>
-    <t>Artes de cerco con trampas</t>
-  </si>
-  <si>
-    <t>Trasmallo de deriva</t>
-  </si>
-  <si>
-    <t>Arte de cerco con luces</t>
-  </si>
-  <si>
-    <t>Red de izado de poste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red de cerco con jareta </t>
-  </si>
-  <si>
-    <t>Red de cerco</t>
-  </si>
-  <si>
-    <t>Redes de tiro</t>
-  </si>
-  <si>
-    <t>Boquerón eviscerado para vinagre</t>
-  </si>
-  <si>
-    <t>Pulpo T2 descongelado</t>
-  </si>
-  <si>
-    <t>Pota en anilla descongelada</t>
-  </si>
-  <si>
-    <t>Boquerón eviscerado</t>
-  </si>
-  <si>
-    <t>FAO 03</t>
-  </si>
-  <si>
-    <t>FAO 04</t>
-  </si>
-  <si>
-    <t>FAO 05</t>
-  </si>
-  <si>
-    <t>FAO 06</t>
-  </si>
-  <si>
-    <t>FAO 07</t>
-  </si>
-  <si>
-    <t>FAO 08</t>
-  </si>
-  <si>
-    <t>FAO 18</t>
-  </si>
-  <si>
-    <t>FAO 21</t>
-  </si>
-  <si>
-    <t>FAO 21.1</t>
-  </si>
-  <si>
-    <t>FAO 21.1.1</t>
-  </si>
-  <si>
-    <t>FAO 21.1.2</t>
-  </si>
-  <si>
-    <t>FAO 21.2</t>
-  </si>
-  <si>
-    <t>FAO 21.2.1</t>
-  </si>
-  <si>
-    <t>FAO 21.2.2</t>
-  </si>
-  <si>
-    <t>FAO 21.3</t>
-  </si>
-  <si>
-    <t>FAO 21.3.1</t>
-  </si>
-  <si>
-    <t>FAO 21.3.2</t>
-  </si>
-  <si>
-    <t>FAO 21.4</t>
-  </si>
-  <si>
-    <t>FAO 21.4.1</t>
-  </si>
-  <si>
-    <t>FAO 21.4.2</t>
-  </si>
-  <si>
-    <t>FAO 21.5</t>
-  </si>
-  <si>
-    <t>FAO 21.6</t>
-  </si>
-  <si>
-    <t>FAO 21.7</t>
-  </si>
-  <si>
-    <t>FAO 27</t>
-  </si>
-  <si>
-    <t>FAO 31</t>
-  </si>
-  <si>
-    <t>FAO 31.1</t>
-  </si>
-  <si>
-    <t>FAO 31.2</t>
-  </si>
-  <si>
-    <t>FAO 31.3</t>
-  </si>
-  <si>
-    <t>FAO 34</t>
-  </si>
-  <si>
-    <t>FAO 34.1</t>
-  </si>
-  <si>
-    <t>FAO 34.2</t>
-  </si>
-  <si>
-    <t>FAO 34.3</t>
-  </si>
-  <si>
-    <t>FAO 34.4</t>
-  </si>
-  <si>
-    <t>FAO 37</t>
-  </si>
-  <si>
-    <t>FAO 41</t>
-  </si>
-  <si>
-    <t>FAO 41.1</t>
-  </si>
-  <si>
-    <t>FAO 41.2</t>
-  </si>
-  <si>
-    <t>FAO 41.3</t>
-  </si>
-  <si>
-    <t>FAO 47</t>
-  </si>
-  <si>
-    <t>FAO 47.1</t>
-  </si>
-  <si>
-    <t>FAO 47.2</t>
-  </si>
-  <si>
-    <t>FAO 47.3</t>
-  </si>
-  <si>
-    <t>FAO 48</t>
-  </si>
-  <si>
-    <t>FAO 48.1</t>
-  </si>
-  <si>
-    <t>FAO 48.2</t>
-  </si>
-  <si>
-    <t>FAO 48.3</t>
-  </si>
-  <si>
-    <t>FAO 48.4</t>
-  </si>
-  <si>
-    <t>FAO 48.5</t>
-  </si>
-  <si>
-    <t>FAO 51</t>
-  </si>
-  <si>
-    <t>FAO 51.1</t>
-  </si>
-  <si>
-    <t>FAO 51.1.1</t>
-  </si>
-  <si>
-    <t>FAO 51.1.2</t>
-  </si>
-  <si>
-    <t>FAO 51.1.3</t>
-  </si>
-  <si>
-    <t>FAO 51.1.4</t>
-  </si>
-  <si>
-    <t>FAO 51.1.5</t>
-  </si>
-  <si>
-    <t>FAO 51.2</t>
-  </si>
-  <si>
-    <t>FAO 51.3</t>
-  </si>
-  <si>
-    <t>FAO 51.4</t>
-  </si>
-  <si>
-    <t>FAO 51.5</t>
-  </si>
-  <si>
-    <t>FAO 57</t>
-  </si>
-  <si>
-    <t>FAO 57.1</t>
-  </si>
-  <si>
-    <t>FAO 57.2</t>
-  </si>
-  <si>
-    <t>FAO 57.3</t>
-  </si>
-  <si>
-    <t>FAO 57.4</t>
-  </si>
-  <si>
-    <t>FAO 58</t>
-  </si>
-  <si>
-    <t>FAO 58.4.1</t>
-  </si>
-  <si>
-    <t>FAO 58.4.2</t>
-  </si>
-  <si>
-    <t>FAO 58.4.3</t>
-  </si>
-  <si>
-    <t>FAO 58.4.4</t>
-  </si>
-  <si>
-    <t>FAO 58.5.1</t>
-  </si>
-  <si>
-    <t>FAO 58.5.2</t>
-  </si>
-  <si>
-    <t>FAO 58.6</t>
-  </si>
-  <si>
-    <t>FAO 58.7</t>
-  </si>
-  <si>
-    <t>FAO 58.8</t>
-  </si>
-  <si>
-    <t>FAO 61</t>
-  </si>
-  <si>
-    <t>FAO 61.1</t>
-  </si>
-  <si>
-    <t>FAO 61.2</t>
-  </si>
-  <si>
-    <t>FAO 61.3</t>
-  </si>
-  <si>
-    <t>FAO 61.4</t>
-  </si>
-  <si>
-    <t>FAO 67</t>
-  </si>
-  <si>
-    <t>FAO 67.1</t>
-  </si>
-  <si>
-    <t>FAO 67.2</t>
-  </si>
-  <si>
-    <t>FAO 67.3</t>
-  </si>
-  <si>
-    <t>FAO 71</t>
-  </si>
-  <si>
-    <t>FAO 71.1</t>
-  </si>
-  <si>
-    <t>FAO 71.2</t>
-  </si>
-  <si>
-    <t>FAO 71.3</t>
-  </si>
-  <si>
-    <t>FAO 71.4</t>
-  </si>
-  <si>
-    <t>FAO 71.5</t>
-  </si>
-  <si>
-    <t>FAO 77</t>
-  </si>
-  <si>
-    <t>FAO 77.1</t>
-  </si>
-  <si>
-    <t>FAO 77.2</t>
-  </si>
-  <si>
-    <t>FAO 77.3</t>
-  </si>
-  <si>
-    <t>FAO 81</t>
-  </si>
-  <si>
-    <t>FAO 81.1</t>
-  </si>
-  <si>
-    <t>FAO 81.2</t>
-  </si>
-  <si>
-    <t>FAO 81.3</t>
-  </si>
-  <si>
-    <t>FAO 87</t>
-  </si>
-  <si>
-    <t>FAO 87.1</t>
-  </si>
-  <si>
-    <t>FAO 87.2</t>
-  </si>
-  <si>
-    <t>FAO 87.4</t>
-  </si>
-  <si>
-    <t>FAO 88</t>
-  </si>
-  <si>
-    <t>FAO 88.1</t>
-  </si>
-  <si>
-    <t>FAO 88.2</t>
-  </si>
-  <si>
-    <t>FAO 88.3</t>
-  </si>
-  <si>
-    <t>Nasas y trampas</t>
-  </si>
-  <si>
-    <t>redes de arrastres- sedales y anzuelos</t>
-  </si>
-  <si>
-    <t>FT POTA</t>
-  </si>
-  <si>
-    <t>Sedales y anzuelos</t>
+    <r>
+      <t>Gambas (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRUSTÁCEOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), antioxidantes Antioxidantes: Metabi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SULFITO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de sodio (E-223), Ascorbato sódico (E-301) y Citratos de sodio 
+(E-331). Estabilizante: Difosfatos (E-450).  Contiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SULFITOS. </t>
+    </r>
+  </si>
+  <si>
+    <t>Rossec</t>
+  </si>
+  <si>
+    <t>sedales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red de arrastre </t>
+  </si>
+  <si>
+    <t>palangre de deriva</t>
   </si>
 </sst>
 </file>
@@ -1985,13 +2065,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
@@ -2042,13 +2122,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2066,13 +2146,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -2086,19 +2166,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>34</v>
+        <v>402</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
@@ -2113,13 +2193,13 @@
       </c>
       <c r="D5" s="10"/>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
@@ -2134,13 +2214,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2148,7 +2228,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
@@ -2157,13 +2237,13 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2178,13 +2258,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
@@ -2192,18 +2272,18 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="7"/>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
@@ -2211,20 +2291,20 @@
         <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="7"/>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.3">
@@ -2232,20 +2312,20 @@
         <v>29</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2253,20 +2333,20 @@
         <v>29</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="7"/>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2282,13 +2362,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
       <c r="F13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2349,10 +2429,10 @@
     </row>
     <row r="14" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>19</v>
@@ -2361,29 +2441,37 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>403</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -2447,80 +2535,80 @@
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="F16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
       <c r="F17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="F18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="F20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
       <c r="F21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
       <c r="G22" s="22"/>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2529,13 +2617,13 @@
       <c r="D23" s="24"/>
       <c r="E23" s="6"/>
       <c r="F23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -2543,13 +2631,13 @@
       <c r="C24" s="25"/>
       <c r="D24" s="24"/>
       <c r="F24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -2557,13 +2645,13 @@
       <c r="C25" s="25"/>
       <c r="D25" s="24"/>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2572,13 +2660,13 @@
       <c r="D26" s="24"/>
       <c r="E26" s="6"/>
       <c r="F26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -2586,13 +2674,13 @@
       <c r="C27" s="25"/>
       <c r="D27" s="24"/>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -2600,13 +2688,13 @@
       <c r="C28" s="25"/>
       <c r="D28" s="24"/>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2615,13 +2703,13 @@
       <c r="D29" s="24"/>
       <c r="E29" s="6"/>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2629,13 +2717,13 @@
       <c r="C30" s="25"/>
       <c r="D30" s="24"/>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -2643,13 +2731,13 @@
       <c r="C31" s="25"/>
       <c r="D31" s="24"/>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2658,13 +2746,13 @@
       <c r="D32" s="24"/>
       <c r="E32" s="6"/>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -2672,13 +2760,13 @@
       <c r="C33" s="25"/>
       <c r="D33" s="24"/>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -2686,13 +2774,13 @@
       <c r="C34" s="25"/>
       <c r="D34" s="24"/>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2701,13 +2789,13 @@
       <c r="D35" s="24"/>
       <c r="E35" s="6"/>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -2715,13 +2803,13 @@
       <c r="C36" s="25"/>
       <c r="D36" s="24"/>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -2729,13 +2817,13 @@
       <c r="C37" s="25"/>
       <c r="D37" s="24"/>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2744,13 +2832,13 @@
       <c r="D38" s="24"/>
       <c r="E38" s="6"/>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -2758,13 +2846,13 @@
       <c r="C39" s="25"/>
       <c r="D39" s="24"/>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -2772,331 +2860,343 @@
       <c r="C40" s="25"/>
       <c r="D40" s="24"/>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="H43" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="H44" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="H45" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="H46" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.3">
@@ -3104,675 +3204,675 @@
         <v>8</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F113" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F118" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F119" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F121" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F123" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F125" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F128" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F130" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F131" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F132" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F133" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F134" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F135" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F137" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F138" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F139" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F140" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F143" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F144" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F145" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F146" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F147" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F150" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F154" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F155" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F156" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F157" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F158" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G161" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1788DCD2-997F-4306-B819-747255CFB48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F44F03-E2C5-41D0-9C4C-0FCB18EDD857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Cazón tintorera troceado. Producto congelado</t>
   </si>
   <si>
-    <t xml:space="preserve">Gamba </t>
-  </si>
-  <si>
     <t>Parapenaeus longirostris (DSP)</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Salmo Salar</t>
   </si>
   <si>
-    <t xml:space="preserve">Merluza </t>
-  </si>
-  <si>
     <t>Octopus Vulgaris</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
   </si>
   <si>
     <t>De cria (acuicultura)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lubina </t>
   </si>
   <si>
     <t>Dicentrarchus Labrax</t>
@@ -1418,6 +1409,15 @@
   <si>
     <t>palangre de deriva</t>
   </si>
+  <si>
+    <t>Gamba</t>
+  </si>
+  <si>
+    <t>Merluza</t>
+  </si>
+  <si>
+    <t>Lubina</t>
+  </si>
 </sst>
 </file>
 
@@ -1456,7 +1456,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1489,11 +1489,113 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1503,6 +1605,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1515,12 +1639,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1530,12 +1652,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1546,68 +1664,20 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1617,44 +1687,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1663,6 +1716,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2065,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2083,292 +2156,292 @@
   <sheetData>
     <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>248</v>
+      <c r="F2" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>90</v>
+      <c r="F3" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>402</v>
+      <c r="D4" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>91</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>29</v>
+      <c r="A5" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="F5" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="F5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="7"/>
-      <c r="F6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>93</v>
+      <c r="F6" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D10" s="7"/>
+      <c r="F10" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="H10" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="F12" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="F8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-      <c r="F9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="F10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="F11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="F12" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
-      <c r="F13" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>256</v>
+      <c r="F13" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2429,49 +2502,49 @@
     </row>
     <row r="14" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>257</v>
+        <v>394</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>403</v>
-      </c>
       <c r="E15" s="5"/>
-      <c r="F15" t="s">
-        <v>303</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>102</v>
+      <c r="F15" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -2531,1348 +2604,1349 @@
       <c r="BL15"/>
     </row>
     <row r="16" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="F16" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>103</v>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="F16" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
-      <c r="F17" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>104</v>
+      <c r="F17" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
-      <c r="F18" t="s">
-        <v>306</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>105</v>
+      <c r="F18" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
-      <c r="F19" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>106</v>
+      <c r="F19" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="F20" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>107</v>
+      <c r="F20" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="H20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
-      <c r="F21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>108</v>
+      <c r="F21" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="19"/>
       <c r="H22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="F24" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+      <c r="F25" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="6"/>
-      <c r="F23" t="s">
-        <v>310</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="F27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
+      <c r="F28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="20"/>
+      <c r="F31" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20"/>
+      <c r="F33" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="20"/>
+      <c r="F34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20"/>
+      <c r="F36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="20"/>
+      <c r="F37" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="20"/>
+      <c r="F39" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="20"/>
+      <c r="F40" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F42" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="F24" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24"/>
-      <c r="F25" t="s">
+      <c r="G67" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="6"/>
-      <c r="F26" t="s">
+      <c r="G68" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
-      <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-      <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="6"/>
-      <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24"/>
-      <c r="F31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="6"/>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24"/>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24"/>
-      <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H34" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="6"/>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="24"/>
-      <c r="F36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="24"/>
-      <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="6"/>
-      <c r="F38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24"/>
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F64" t="s">
+      <c r="G69" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F65" t="s">
+      <c r="G77" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F66" t="s">
+      <c r="G78" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F67" t="s">
-        <v>314</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
-        <v>315</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F69" t="s">
-        <v>316</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F70" t="s">
-        <v>317</v>
-      </c>
-      <c r="G70" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F71" t="s">
-        <v>318</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F72" t="s">
-        <v>319</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F73" t="s">
-        <v>320</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F74" t="s">
+      <c r="G79" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="G74" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F75" t="s">
+      <c r="G87" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="G75" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F76" t="s">
+      <c r="G88" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="G76" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F77" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F79" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F80" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F81" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F84" t="s">
+      <c r="G89" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F114" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F115" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F119" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F121" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F122" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F123" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F124" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F125" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F126" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F127" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F128" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F129" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F130" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F131" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F132" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F133" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F134" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F135" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F136" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F137" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F138" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F139" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F140" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F141" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F142" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F143" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F144" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F145" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F146" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F147" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F148" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F149" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F150" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F151" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F152" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F153" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G84" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" t="s">
+      <c r="G153" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F154" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G85" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" t="s">
+      <c r="G154" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F155" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G86" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" t="s">
-        <v>324</v>
-      </c>
-      <c r="G87" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F88" t="s">
-        <v>325</v>
-      </c>
-      <c r="G88" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F89" t="s">
-        <v>326</v>
-      </c>
-      <c r="G89" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F90" t="s">
-        <v>327</v>
-      </c>
-      <c r="G90" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F91" t="s">
-        <v>328</v>
-      </c>
-      <c r="G91" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F92" t="s">
-        <v>329</v>
-      </c>
-      <c r="G92" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F93" t="s">
-        <v>330</v>
-      </c>
-      <c r="G93" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F94" t="s">
-        <v>331</v>
-      </c>
-      <c r="G94" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F95" t="s">
-        <v>332</v>
-      </c>
-      <c r="G95" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F96" t="s">
-        <v>333</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F97" t="s">
-        <v>334</v>
-      </c>
-      <c r="G97" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F98" t="s">
-        <v>335</v>
-      </c>
-      <c r="G98" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F99" t="s">
-        <v>336</v>
-      </c>
-      <c r="G99" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F100" t="s">
-        <v>337</v>
-      </c>
-      <c r="G100" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F101" t="s">
-        <v>338</v>
-      </c>
-      <c r="G101" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F102" t="s">
-        <v>339</v>
-      </c>
-      <c r="G102" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F103" t="s">
-        <v>340</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F104" t="s">
-        <v>341</v>
-      </c>
-      <c r="G104" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F105" t="s">
-        <v>342</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F106" t="s">
-        <v>343</v>
-      </c>
-      <c r="G106" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F107" t="s">
-        <v>344</v>
-      </c>
-      <c r="G107" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F108" t="s">
-        <v>345</v>
-      </c>
-      <c r="G108" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F109" t="s">
-        <v>346</v>
-      </c>
-      <c r="G109" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F110" t="s">
-        <v>347</v>
-      </c>
-      <c r="G110" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F111" t="s">
-        <v>348</v>
-      </c>
-      <c r="G111" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F112" t="s">
-        <v>349</v>
-      </c>
-      <c r="G112" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F113" t="s">
-        <v>350</v>
-      </c>
-      <c r="G113" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F114" t="s">
-        <v>351</v>
-      </c>
-      <c r="G114" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F115" t="s">
-        <v>352</v>
-      </c>
-      <c r="G115" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F116" t="s">
-        <v>353</v>
-      </c>
-      <c r="G116" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F117" t="s">
-        <v>354</v>
-      </c>
-      <c r="G117" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F118" t="s">
-        <v>355</v>
-      </c>
-      <c r="G118" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F119" t="s">
-        <v>356</v>
-      </c>
-      <c r="G119" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F120" t="s">
-        <v>357</v>
-      </c>
-      <c r="G120" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F121" t="s">
-        <v>358</v>
-      </c>
-      <c r="G121" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F122" t="s">
-        <v>359</v>
-      </c>
-      <c r="G122" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F123" t="s">
-        <v>360</v>
-      </c>
-      <c r="G123" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F124" t="s">
-        <v>361</v>
-      </c>
-      <c r="G124" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F125" t="s">
-        <v>362</v>
-      </c>
-      <c r="G125" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F126" t="s">
-        <v>363</v>
-      </c>
-      <c r="G126" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F127" t="s">
-        <v>364</v>
-      </c>
-      <c r="G127" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F128" t="s">
-        <v>365</v>
-      </c>
-      <c r="G128" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F129" t="s">
-        <v>366</v>
-      </c>
-      <c r="G129" s="21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F130" t="s">
-        <v>367</v>
-      </c>
-      <c r="G130" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F131" t="s">
-        <v>368</v>
-      </c>
-      <c r="G131" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F132" t="s">
-        <v>369</v>
-      </c>
-      <c r="G132" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F133" t="s">
-        <v>370</v>
-      </c>
-      <c r="G133" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F134" t="s">
-        <v>371</v>
-      </c>
-      <c r="G134" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F135" t="s">
-        <v>372</v>
-      </c>
-      <c r="G135" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F136" t="s">
-        <v>373</v>
-      </c>
-      <c r="G136" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F137" t="s">
-        <v>374</v>
-      </c>
-      <c r="G137" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F138" t="s">
-        <v>375</v>
-      </c>
-      <c r="G138" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F139" t="s">
-        <v>376</v>
-      </c>
-      <c r="G139" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F140" t="s">
-        <v>377</v>
-      </c>
-      <c r="G140" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F141" t="s">
-        <v>378</v>
-      </c>
-      <c r="G141" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F142" t="s">
-        <v>379</v>
-      </c>
-      <c r="G142" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F143" t="s">
-        <v>380</v>
-      </c>
-      <c r="G143" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F144" t="s">
-        <v>381</v>
-      </c>
-      <c r="G144" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F145" t="s">
-        <v>382</v>
-      </c>
-      <c r="G145" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F146" t="s">
-        <v>383</v>
-      </c>
-      <c r="G146" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F147" t="s">
-        <v>384</v>
-      </c>
-      <c r="G147" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F148" t="s">
-        <v>385</v>
-      </c>
-      <c r="G148" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F149" t="s">
-        <v>386</v>
-      </c>
-      <c r="G149" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F150" t="s">
+      <c r="G155" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F156" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="G150" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F151" t="s">
+      <c r="G156" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F157" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="G151" s="21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F152" t="s">
+      <c r="G157" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F158" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="G152" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F153" t="s">
-        <v>86</v>
-      </c>
-      <c r="G153" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F154" t="s">
-        <v>87</v>
-      </c>
-      <c r="G154" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F155" t="s">
-        <v>88</v>
-      </c>
-      <c r="G155" s="21" t="s">
+      <c r="G158" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F156" t="s">
+    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F159" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="G156" s="21" t="s">
+      <c r="G159" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F157" t="s">
+    <row r="160" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F160" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="G157" s="21" t="s">
+      <c r="G160" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F158" t="s">
-        <v>392</v>
-      </c>
-      <c r="G158" s="21" t="s">
+    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G161" s="18" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F159" t="s">
-        <v>393</v>
-      </c>
-      <c r="G159" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="160" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F160" t="s">
-        <v>394</v>
-      </c>
-      <c r="G160" s="21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G161" s="21" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F44F03-E2C5-41D0-9C4C-0FCB18EDD857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB882FD4-4512-44B5-B8E5-DC632DA18754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="409">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>PRIONACE GLAUCA/BSH</t>
-  </si>
-  <si>
-    <t>Cazón tintorera troceado. Producto congelado</t>
   </si>
   <si>
     <t>Parapenaeus longirostris (DSP)</t>
@@ -1418,6 +1415,12 @@
   <si>
     <t>Lubina</t>
   </si>
+  <si>
+    <t>Cazón tintorera troceado. Producto descongelado</t>
+  </si>
+  <si>
+    <t>Islas Feroe</t>
+  </si>
 </sst>
 </file>
 
@@ -1673,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1710,12 +1713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <extLst>
@@ -1736,6 +1733,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2136,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
-  <dimension ref="A1:BL161"/>
+  <dimension ref="A1:BL162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,33 +2162,33 @@
   <sheetData>
     <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -2191,25 +2197,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>86</v>
+      <c r="F2" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>407</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>4</v>
@@ -2218,230 +2224,230 @@
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>87</v>
+      <c r="F3" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>88</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="F5" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>89</v>
+      <c r="F5" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="F6" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>90</v>
+      <c r="F6" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>91</v>
+      <c r="F7" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="7"/>
-      <c r="F8" s="27" t="s">
-        <v>293</v>
+      <c r="F8" s="25" t="s">
+        <v>292</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="7"/>
-      <c r="F9" s="27" t="s">
-        <v>294</v>
+      <c r="F9" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" s="7"/>
-      <c r="F10" s="27" t="s">
-        <v>295</v>
+      <c r="F10" s="25" t="s">
+        <v>294</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="F11" s="27" t="s">
-        <v>296</v>
+      <c r="F11" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="F12" s="27" t="s">
-        <v>297</v>
+      <c r="F12" s="25" t="s">
+        <v>296</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="27" t="s">
-        <v>298</v>
+      <c r="F13" s="25" t="s">
+        <v>297</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2502,49 +2508,49 @@
     </row>
     <row r="14" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>299</v>
+      <c r="F14" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>398</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="27" t="s">
-        <v>300</v>
+      <c r="F15" s="25" t="s">
+        <v>299</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -2607,1346 +2613,1351 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
-      <c r="F16" s="27" t="s">
-        <v>301</v>
+      <c r="F16" s="25" t="s">
+        <v>300</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
-      <c r="F17" s="27" t="s">
-        <v>302</v>
+      <c r="F17" s="25" t="s">
+        <v>301</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
-      <c r="F18" s="27" t="s">
-        <v>303</v>
+      <c r="F18" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
-      <c r="F19" s="27" t="s">
-        <v>304</v>
+      <c r="F19" s="25" t="s">
+        <v>303</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="F20" s="27" t="s">
-        <v>305</v>
+      <c r="F20" s="25" t="s">
+        <v>304</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
-      <c r="F21" s="27" t="s">
-        <v>306</v>
+      <c r="F21" s="25" t="s">
+        <v>305</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="19"/>
       <c r="H22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="F25" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="F27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="F28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="F30" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="F31" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="F33" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="27"/>
+      <c r="F34" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="F24" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="F25" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="27" t="s">
+    <row r="35" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="27"/>
+      <c r="F36" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="27"/>
+      <c r="F37" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="27"/>
+      <c r="F39" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="27"/>
+      <c r="F40" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F42" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="F27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="F28" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="F30" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-      <c r="F31" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20"/>
-      <c r="F33" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="20"/>
-      <c r="F34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-      <c r="F36" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-      <c r="F37" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="H37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="20"/>
-      <c r="F39" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="20"/>
-      <c r="F40" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F42" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F43" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F44" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F45" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F46" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F47" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F48" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F56" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F58" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F59" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F60" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F61" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F62" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F63" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F64" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F65" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F66" s="27" t="s">
+      <c r="G67" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G66" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F67" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F68" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F69" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F70" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F71" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F72" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F73" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F74" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F75" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F76" s="27" t="s">
+      <c r="G77" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="G76" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F77" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F78" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F79" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F80" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F81" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F82" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F83" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F84" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" s="27" t="s">
+      <c r="G87" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F114" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F115" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F119" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F121" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F122" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F123" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F124" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F125" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F126" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F127" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F128" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F129" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F130" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F131" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F132" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F133" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F134" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F135" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F136" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F137" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F138" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F139" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F140" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F141" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F142" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F143" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F144" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F145" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F146" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F147" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F148" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F149" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F150" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F151" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F152" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F153" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G86" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F88" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F89" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F90" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F91" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F92" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F93" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F94" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F95" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F96" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F97" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F98" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F99" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F100" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F101" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F102" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F103" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F104" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F105" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F106" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F107" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F108" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G108" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F109" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="G109" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F110" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F111" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F112" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F113" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="G113" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F114" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F115" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="G115" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F116" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F117" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="G117" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F118" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F119" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F120" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F121" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F122" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="G122" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F123" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="G123" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F124" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="G124" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F125" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F126" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F127" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="G127" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F128" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G128" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F129" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="G129" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F130" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="G130" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F131" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="G131" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F132" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="G132" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F133" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="G133" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F134" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G134" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F135" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G135" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F136" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="G136" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F137" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F138" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="G138" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F139" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F140" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F141" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G141" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F142" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="G142" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F143" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="G143" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F144" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="G144" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F145" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F146" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="G146" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F147" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F148" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="G148" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F149" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F150" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F151" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="G151" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F152" s="27" t="s">
+      <c r="G153" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F154" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G154" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F155" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G155" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F156" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="G152" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F153" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G153" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F154" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G154" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F155" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G155" s="18" t="s">
+      <c r="G156" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F156" s="27" t="s">
+    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F157" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="G156" s="18" t="s">
+      <c r="G157" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F157" s="27" t="s">
+    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F158" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="G157" s="18" t="s">
+      <c r="G158" s="18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F158" s="27" t="s">
+    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F159" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="G158" s="18" t="s">
+      <c r="G159" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F159" s="27" t="s">
+    <row r="160" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F160" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="G159" s="18" t="s">
+      <c r="G160" s="18" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="160" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F160" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="G160" s="18" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G161" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G162" s="29" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB882FD4-4512-44B5-B8E5-DC632DA18754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6411B12-166C-4B59-A4D0-CBFB3B422037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="415">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1420,6 +1420,24 @@
   </si>
   <si>
     <t>Islas Feroe</t>
+  </si>
+  <si>
+    <t>FT PESCADOS DESCONGELADO</t>
+  </si>
+  <si>
+    <t>boquerón evisceradodescongelado</t>
+  </si>
+  <si>
+    <t>Gallo eviscerado descongelado</t>
+  </si>
+  <si>
+    <t>Lepidorhombus whiffiagonis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO 31.1.1. </t>
+  </si>
+  <si>
+    <t>FAO 27. VIII</t>
   </si>
 </sst>
 </file>
@@ -1739,9 +1757,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2144,14 +2160,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
@@ -2610,9 +2626,15 @@
       <c r="BL15"/>
     </row>
     <row r="16" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>412</v>
+      </c>
       <c r="F16" s="25" t="s">
         <v>300</v>
       </c>
@@ -2623,8 +2645,16 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="F17" s="25" t="s">
         <v>301</v>
       </c>
@@ -2635,7 +2665,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="F18" s="25" t="s">
         <v>302</v>
@@ -2647,7 +2677,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
       <c r="F19" s="25" t="s">
         <v>303</v>
@@ -2659,7 +2689,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="F20" s="25" t="s">
         <v>304</v>
@@ -2671,7 +2701,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
       <c r="F21" s="25" t="s">
         <v>305</v>
@@ -2683,7 +2713,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
       <c r="F22" s="25"/>
       <c r="G22" s="19"/>
@@ -2691,7 +2721,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="27"/>
@@ -2706,7 +2736,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="27"/>
@@ -2720,7 +2750,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
       <c r="D25" s="27"/>
@@ -2734,7 +2764,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="27"/>
@@ -2749,7 +2779,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="27"/>
@@ -2763,7 +2793,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="27"/>
@@ -2777,7 +2807,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="27"/>
@@ -2792,7 +2822,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="27"/>
@@ -2806,7 +2836,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="27"/>
@@ -2820,7 +2850,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="27"/>
@@ -3927,37 +3957,43 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F161" s="29" t="s">
+        <v>413</v>
+      </c>
       <c r="G161" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G162" s="29" t="s">
+    <row r="162" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F162" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G162" s="18" t="s">
         <v>408</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6411B12-166C-4B59-A4D0-CBFB3B422037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0262DFC4-5009-4CB7-A1ED-85EBF46DAAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="416">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1439,6 +1439,9 @@
   <si>
     <t>FAO 27. VIII</t>
   </si>
+  <si>
+    <t xml:space="preserve"> redes de arrastre OTB</t>
+  </si>
 </sst>
 </file>
 
@@ -1694,7 +1697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1757,7 +1760,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2160,13 +2162,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
@@ -2649,7 +2651,7 @@
       <c r="A17" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>410</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -3052,6 +3054,9 @@
       <c r="G47" s="18" t="s">
         <v>129</v>
       </c>
+      <c r="H47" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F48" s="25" t="s">
@@ -3958,7 +3963,7 @@
       </c>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F161" s="29" t="s">
+      <c r="F161" s="25" t="s">
         <v>413</v>
       </c>
       <c r="G161" s="18" t="s">
@@ -3966,7 +3971,7 @@
       </c>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F162" s="29" t="s">
+      <c r="F162" s="25" t="s">
         <v>414</v>
       </c>
       <c r="G162" s="18" t="s">
@@ -3976,24 +3981,24 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0262DFC4-5009-4CB7-A1ED-85EBF46DAAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54605126-169A-4A61-8124-80162BBF466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="419">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1410,12 +1410,6 @@
     <t>Gamba</t>
   </si>
   <si>
-    <t>Merluza</t>
-  </si>
-  <si>
-    <t>Lubina</t>
-  </si>
-  <si>
     <t>Cazón tintorera troceado. Producto descongelado</t>
   </si>
   <si>
@@ -1425,9 +1419,6 @@
     <t>FT PESCADOS DESCONGELADO</t>
   </si>
   <si>
-    <t>boquerón evisceradodescongelado</t>
-  </si>
-  <si>
     <t>Gallo eviscerado descongelado</t>
   </si>
   <si>
@@ -1441,6 +1432,24 @@
   </si>
   <si>
     <t xml:space="preserve"> redes de arrastre OTB</t>
+  </si>
+  <si>
+    <t>Red de cerco y red izada</t>
+  </si>
+  <si>
+    <t>Lubina fresca eviscerada</t>
+  </si>
+  <si>
+    <t>Merluza fresca eviscerado</t>
+  </si>
+  <si>
+    <t>Boquerón eviscerado descongelado</t>
+  </si>
+  <si>
+    <t>Salmonete fresco eviscerado</t>
+  </si>
+  <si>
+    <t>Mullus Surmuletus</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1760,6 +1769,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2162,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,7 +2243,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>4</v>
@@ -2283,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
@@ -2451,7 +2461,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>14</v>
@@ -2629,13 +2639,13 @@
     </row>
     <row r="16" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>412</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>300</v>
@@ -2649,10 +2659,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>1</v>
@@ -2668,7 +2678,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
+      <c r="A18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="F18" s="25" t="s">
         <v>302</v>
       </c>
@@ -3055,7 +3073,7 @@
         <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
@@ -3065,6 +3083,9 @@
       <c r="G48" s="18" t="s">
         <v>130</v>
       </c>
+      <c r="H48" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" s="25" t="s">
@@ -3964,7 +3985,7 @@
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F161" s="25" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G161" s="18" t="s">
         <v>243</v>
@@ -3972,33 +3993,33 @@
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F162" s="25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54605126-169A-4A61-8124-80162BBF466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC815814-975B-4423-AA8C-C259B8442E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="420">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1451,6 +1451,9 @@
   <si>
     <t>Mullus Surmuletus</t>
   </si>
+  <si>
+    <t>Paises Bajos</t>
+  </si>
 </sst>
 </file>
 
@@ -1706,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1769,7 +1772,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
-  <dimension ref="A1:BL162"/>
+  <dimension ref="A1:BL163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F154" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2681,7 +2683,7 @@
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="25" t="s">
         <v>417</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -3999,27 +4001,32 @@
         <v>406</v>
       </c>
     </row>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G163" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC815814-975B-4423-AA8C-C259B8442E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC2E1F-1DD3-4E5F-A883-79E031706B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="421">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1453,6 +1453,9 @@
   </si>
   <si>
     <t>Paises Bajos</t>
+  </si>
+  <si>
+    <t>Pescadilla fresca eviscerada</t>
   </si>
 </sst>
 </file>
@@ -2174,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F154" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2700,6 +2703,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="25" t="s">
         <v>303</v>
@@ -4009,24 +4021,24 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC2E1F-1DD3-4E5F-A883-79E031706B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21EF2A8-96AB-4254-8A2A-AC324A15B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="422">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1457,6 +1457,9 @@
   <si>
     <t>Pescadilla fresca eviscerada</t>
   </si>
+  <si>
+    <t>FAO 31.1.1.1</t>
+  </si>
 </sst>
 </file>
 
@@ -1712,7 +1715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1775,6 +1778,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2177,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B154" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,6 +4018,9 @@
       </c>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F163" s="29" t="s">
+        <v>421</v>
+      </c>
       <c r="G163" s="18" t="s">
         <v>419</v>
       </c>
@@ -4021,24 +4028,24 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21EF2A8-96AB-4254-8A2A-AC324A15B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528BB5F-EAA2-4A56-A011-EC4BA9040A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="426">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>FAO 27.VIIIb</t>
-  </si>
-  <si>
-    <t>FAO 27.VIIIc</t>
   </si>
   <si>
     <t>FAO 27.VIIId</t>
@@ -1459,6 +1456,21 @@
   </si>
   <si>
     <t>FAO 31.1.1.1</t>
+  </si>
+  <si>
+    <t>Oncorynchus Mykiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trucha arcoiris fresca eviscerada </t>
+  </si>
+  <si>
+    <t>Bacaladilla fresca eviscerada</t>
+  </si>
+  <si>
+    <t>Micromesistius Poutassou</t>
+  </si>
+  <si>
+    <t>FAO 27.VIIIc- Atlántico noreste, golfo de vizcaya sur</t>
   </si>
 </sst>
 </file>
@@ -2181,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,13 +2250,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2252,7 +2264,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>4</v>
@@ -2262,13 +2274,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -2276,25 +2288,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
@@ -2302,20 +2314,20 @@
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
@@ -2330,13 +2342,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2344,7 +2356,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
@@ -2353,13 +2365,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2374,13 +2386,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
@@ -2393,13 +2405,13 @@
       <c r="C9" s="13"/>
       <c r="D9" s="7"/>
       <c r="F9" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
@@ -2414,13 +2426,13 @@
       </c>
       <c r="D10" s="7"/>
       <c r="F10" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.3">
@@ -2428,20 +2440,20 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2449,20 +2461,20 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="7"/>
       <c r="F12" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2470,7 +2482,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>14</v>
@@ -2478,13 +2490,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
       <c r="F13" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2545,10 +2557,10 @@
     </row>
     <row r="14" spans="1:64" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>15</v>
@@ -2557,37 +2569,37 @@
         <v>16</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>397</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -2648,42 +2660,42 @@
     </row>
     <row r="16" spans="1:64" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>409</v>
-      </c>
       <c r="F16" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2691,19 +2703,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="F18" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2711,44 +2723,54 @@
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G20" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="5"/>
-      <c r="F20" s="25" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
-      <c r="F21" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2756,7 +2778,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="19"/>
       <c r="H22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2765,13 +2787,13 @@
       <c r="D23" s="27"/>
       <c r="E23" s="6"/>
       <c r="F23" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2779,13 +2801,13 @@
       <c r="C24" s="28"/>
       <c r="D24" s="27"/>
       <c r="F24" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2793,13 +2815,13 @@
       <c r="C25" s="28"/>
       <c r="D25" s="27"/>
       <c r="F25" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2808,13 +2830,13 @@
       <c r="D26" s="27"/>
       <c r="E26" s="6"/>
       <c r="F26" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2825,10 +2847,10 @@
         <v>33</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2839,10 +2861,10 @@
         <v>34</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2854,10 +2876,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2868,10 +2890,10 @@
         <v>36</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2882,10 +2904,10 @@
         <v>37</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2897,10 +2919,10 @@
         <v>38</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -2911,10 +2933,10 @@
         <v>39</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -2925,10 +2947,10 @@
         <v>40</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2940,10 +2962,10 @@
         <v>41</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -2954,10 +2976,10 @@
         <v>42</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -2968,10 +2990,10 @@
         <v>43</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2983,10 +3005,10 @@
         <v>44</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -2997,10 +3019,10 @@
         <v>45</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -3011,10 +3033,10 @@
         <v>46</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -3022,10 +3044,10 @@
         <v>47</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -3033,10 +3055,10 @@
         <v>48</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -3044,10 +3066,10 @@
         <v>49</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
@@ -3055,10 +3077,10 @@
         <v>50</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -3066,10 +3088,10 @@
         <v>51</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
@@ -3077,10 +3099,10 @@
         <v>52</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
@@ -3088,10 +3110,10 @@
         <v>53</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
@@ -3099,10 +3121,10 @@
         <v>54</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
@@ -3110,7 +3132,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
@@ -3118,7 +3140,7 @@
         <v>56</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
@@ -3126,7 +3148,7 @@
         <v>57</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.3">
@@ -3134,7 +3156,7 @@
         <v>58</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.3">
@@ -3142,7 +3164,7 @@
         <v>59</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.3">
@@ -3150,7 +3172,7 @@
         <v>60</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.3">
@@ -3158,7 +3180,7 @@
         <v>61</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.3">
@@ -3166,191 +3188,191 @@
         <v>62</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>425</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F61" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F62" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F63" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F64" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.3">
@@ -3358,694 +3380,694 @@
         <v>6</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F106" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F107" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F108" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F109" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F110" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F111" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F112" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F113" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F115" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F116" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F117" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F118" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F119" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F120" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F121" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F122" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F123" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F124" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F125" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F126" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F127" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F128" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F129" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F130" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F131" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F132" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F133" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F134" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F135" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F136" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F137" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F138" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="139" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F139" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F140" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F141" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F142" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F143" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F144" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F145" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F146" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F147" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F148" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F149" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="150" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F150" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F151" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F152" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F153" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F154" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F155" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F156" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F157" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F158" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F159" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="160" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F160" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F161" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F162" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F163" s="29" t="s">
-        <v>421</v>
+      <c r="F163" s="25" t="s">
+        <v>420</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528BB5F-EAA2-4A56-A011-EC4BA9040A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43880C5F-271A-4412-B75C-4B5E79436D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="427">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1471,6 +1471,9 @@
   </si>
   <si>
     <t>FAO 27.VIIIc- Atlántico noreste, golfo de vizcaya sur</t>
+  </si>
+  <si>
+    <t>FAO 37.1.1.1- Mar de alborán</t>
   </si>
 </sst>
 </file>
@@ -2191,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
-  <dimension ref="A1:BL163"/>
+  <dimension ref="A1:BL164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="B151" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2740,7 +2743,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>422</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2757,7 +2760,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>423</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -4047,27 +4050,32 @@
         <v>418</v>
       </c>
     </row>
+    <row r="164" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F164" s="29" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43880C5F-271A-4412-B75C-4B5E79436D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F7D35-F3FD-4806-9DB9-8DC7D2E3BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="429">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1474,6 +1474,12 @@
   </si>
   <si>
     <t>FAO 37.1.1.1- Mar de alborán</t>
+  </si>
+  <si>
+    <t>Rape negro sin piel eviscerado fresco</t>
+  </si>
+  <si>
+    <t>Lophius Budegassa</t>
   </si>
 </sst>
 </file>
@@ -2196,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43B15F-F357-432F-B83B-4E5995CB34A9}">
   <dimension ref="A1:BL164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B151" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2743,6 +2749,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B20" s="25" t="s">
         <v>422</v>
       </c>
@@ -2760,6 +2769,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B21" s="25" t="s">
         <v>423</v>
       </c>
@@ -2777,7 +2789,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
+      <c r="A22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="F22" s="25"/>
       <c r="G22" s="19"/>
       <c r="H22" t="s">
@@ -2785,6 +2805,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="27"/>
@@ -2800,6 +2823,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="27"/>
@@ -4051,31 +4077,31 @@
       </c>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F164" s="29" t="s">
+      <c r="F164" s="25" t="s">
         <v>426</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ETIQUETA.xlsx
+++ b/ETIQUETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\app_santiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F7D35-F3FD-4806-9DB9-8DC7D2E3BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873BAE72-2280-451B-9F01-A7B343DBBC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{267F0688-2DAC-40B1-8A3A-8F617B673CC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="431">
   <si>
     <t>Boquerón eviscerado para freír</t>
   </si>
@@ -1481,6 +1481,12 @@
   <si>
     <t>Lophius Budegassa</t>
   </si>
+  <si>
+    <t>Argyrosomous Regius</t>
+  </si>
+  <si>
+    <t>Corvina fresca eviscerada sin cabeza</t>
+  </si>
 </sst>
 </file>
 
@@ -1736,7 +1742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1799,7 +1805,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2203,7 +2211,7 @@
   <dimension ref="A1:BL164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B26" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2792,7 +2800,7 @@
       <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="25" t="s">
         <v>427</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2808,9 +2816,13 @@
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="D23" s="29"/>
       <c r="E23" s="6"/>
       <c r="F23" s="25" t="s">
         <v>305</v>
@@ -2826,9 +2838,9 @@
       <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29"/>
       <c r="F24" s="25" t="s">
         <v>306</v>
       </c>
@@ -2840,9 +2852,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
       <c r="F25" s="25" t="s">
         <v>307</v>
       </c>
@@ -4083,25 +4095,22 @@
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <mergeCells count="18">
+  <mergeCells count="15">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
